--- a/academycity/data/avi/datasets/excel/world_bank/output/2019_Military_o.xlsx
+++ b/academycity/data/avi/datasets/excel/world_bank/output/2019_Military_o.xlsx
@@ -3629,10 +3629,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.015615</v>
+        <v>-0.01387</v>
       </c>
       <c r="D2" t="n">
-        <v>0.384328</v>
+        <v>0.331319</v>
       </c>
     </row>
     <row r="3">
@@ -3645,10 +3645,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.024651</v>
+        <v>0.021897</v>
       </c>
       <c r="D3" t="n">
-        <v>0.031231</v>
+        <v>0.026923</v>
       </c>
     </row>
     <row r="4">
@@ -3661,10 +3661,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.132114</v>
+        <v>0.117356</v>
       </c>
       <c r="D4" t="n">
-        <v>0.389172</v>
+        <v>0.335495</v>
       </c>
     </row>
     <row r="5">
@@ -3677,10 +3677,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.009176</v>
+        <v>0.008151</v>
       </c>
       <c r="D5" t="n">
-        <v>0.094249</v>
+        <v>0.081249</v>
       </c>
     </row>
     <row r="6">
@@ -3693,10 +3693,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.024399</v>
+        <v>0.021673</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.008351000000000001</v>
+        <v>-0.007199</v>
       </c>
     </row>
     <row r="7">
@@ -3709,10 +3709,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.125763</v>
+        <v>0.111715</v>
       </c>
       <c r="D7" t="n">
-        <v>1.159993</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -3725,10 +3725,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.626798</v>
+        <v>0.5567800000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.005538</v>
+        <v>-0.004774</v>
       </c>
     </row>
     <row r="9">
@@ -3741,10 +3741,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.209559</v>
+        <v>0.18615</v>
       </c>
       <c r="D9" t="n">
-        <v>0.00602</v>
+        <v>0.00519</v>
       </c>
     </row>
     <row r="10">
@@ -3757,10 +3757,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.09676800000000001</v>
+        <v>0.08595800000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.447835</v>
+        <v>0.386067</v>
       </c>
     </row>
     <row r="11">
@@ -3773,10 +3773,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.635177</v>
+        <v>0.564223</v>
       </c>
       <c r="D11" t="n">
-        <v>0.799249</v>
+        <v>0.689011</v>
       </c>
     </row>
     <row r="12">
@@ -3789,10 +3789,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.002874</v>
+        <v>-0.002553</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.07967</v>
+        <v>-0.06868200000000001</v>
       </c>
     </row>
     <row r="13">
@@ -3805,10 +3805,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.032201</v>
+        <v>0.028604</v>
       </c>
       <c r="D13" t="n">
-        <v>1.088917</v>
+        <v>0.938727</v>
       </c>
     </row>
     <row r="14">
@@ -3821,10 +3821,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.240822</v>
+        <v>0.213921</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.010595</v>
+        <v>-0.009134</v>
       </c>
     </row>
     <row r="15">
@@ -3837,10 +3837,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.015889</v>
+        <v>-0.014114</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.110281</v>
+        <v>-0.09507</v>
       </c>
     </row>
     <row r="16">
@@ -3853,10 +3853,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.012253</v>
+        <v>0.010884</v>
       </c>
       <c r="D16" t="n">
-        <v>0.281139</v>
+        <v>0.242363</v>
       </c>
     </row>
     <row r="17">
@@ -3869,10 +3869,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.011526</v>
+        <v>0.010238</v>
       </c>
       <c r="D17" t="n">
-        <v>0.067661</v>
+        <v>0.058329</v>
       </c>
     </row>
     <row r="18">
@@ -3885,10 +3885,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.109914</v>
+        <v>0.097636</v>
       </c>
       <c r="D18" t="n">
-        <v>0.09302000000000001</v>
+        <v>0.08019</v>
       </c>
     </row>
     <row r="19">
@@ -3901,10 +3901,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.057435</v>
+        <v>0.051019</v>
       </c>
       <c r="D19" t="n">
-        <v>0.092834</v>
+        <v>0.080029</v>
       </c>
     </row>
     <row r="20">
@@ -3917,10 +3917,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.174912</v>
+        <v>0.155373</v>
       </c>
       <c r="D20" t="n">
-        <v>0.225011</v>
+        <v>0.193976</v>
       </c>
     </row>
     <row r="21">
@@ -3933,10 +3933,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.008643</v>
+        <v>-0.007678</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.145249</v>
+        <v>-0.125216</v>
       </c>
     </row>
     <row r="22">
@@ -3949,10 +3949,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.014891</v>
+        <v>-0.013228</v>
       </c>
       <c r="D22" t="n">
-        <v>0.146816</v>
+        <v>0.126566</v>
       </c>
     </row>
     <row r="23">
@@ -3965,10 +3965,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.003696</v>
+        <v>0.003283</v>
       </c>
       <c r="D23" t="n">
-        <v>0.727084</v>
+        <v>0.6268</v>
       </c>
     </row>
     <row r="24">
@@ -3981,10 +3981,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.009084999999999999</v>
+        <v>-0.008070000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.083756</v>
+        <v>-0.072204</v>
       </c>
     </row>
     <row r="25">
@@ -3997,10 +3997,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.354574</v>
+        <v>0.314965</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.037573</v>
+        <v>-0.032391</v>
       </c>
     </row>
     <row r="26">
@@ -4013,10 +4013,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.014454</v>
+        <v>-0.012839</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.037201</v>
+        <v>-0.03207</v>
       </c>
     </row>
     <row r="27">
@@ -4029,10 +4029,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.010231</v>
+        <v>-0.009088000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>0.03026</v>
+        <v>0.026087</v>
       </c>
     </row>
     <row r="28">
@@ -4045,10 +4045,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.15152</v>
+        <v>0.134594</v>
       </c>
       <c r="D28" t="n">
-        <v>0.310517</v>
+        <v>0.267689</v>
       </c>
     </row>
     <row r="29">
@@ -4061,10 +4061,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.08781899999999999</v>
+        <v>0.078009</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.046411</v>
+        <v>-0.04001</v>
       </c>
     </row>
     <row r="30">
@@ -4077,10 +4077,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.107829</v>
+        <v>0.09578399999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>0.556606</v>
+        <v>0.479836</v>
       </c>
     </row>
     <row r="31">
@@ -4093,10 +4093,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.016906</v>
+        <v>-0.015017</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.070453</v>
+        <v>-0.060736</v>
       </c>
     </row>
     <row r="32">
@@ -4109,7 +4109,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.014438</v>
+        <v>0.012825</v>
       </c>
     </row>
     <row r="33">
@@ -4122,7 +4122,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>-0.03355</v>
+        <v>-0.028923</v>
       </c>
     </row>
     <row r="34">
@@ -4135,10 +4135,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.0065</v>
+        <v>-0.005774</v>
       </c>
       <c r="D34" t="n">
-        <v>0.211118</v>
+        <v>0.182</v>
       </c>
     </row>
     <row r="35">
@@ -4151,10 +4151,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.135355</v>
+        <v>0.120235</v>
       </c>
       <c r="D35" t="n">
-        <v>0.157118</v>
+        <v>0.135448</v>
       </c>
     </row>
     <row r="36">
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.33438</v>
+        <v>0.28826</v>
       </c>
     </row>
     <row r="37">
@@ -4180,10 +4180,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.217507</v>
+        <v>0.19321</v>
       </c>
       <c r="D37" t="n">
-        <v>0.822841</v>
+        <v>0.70935</v>
       </c>
     </row>
     <row r="38">
@@ -4196,10 +4196,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.151849</v>
+        <v>0.134886</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.004431</v>
+        <v>-0.003819</v>
       </c>
     </row>
     <row r="39">
@@ -4212,10 +4212,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.472679</v>
+        <v>0.419877</v>
       </c>
       <c r="D39" t="n">
-        <v>0.013945</v>
+        <v>0.012022</v>
       </c>
     </row>
     <row r="40">
@@ -4228,7 +4228,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.751866</v>
+        <v>0.648164</v>
       </c>
     </row>
     <row r="41">
@@ -4241,10 +4241,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.016017</v>
+        <v>0.014228</v>
       </c>
       <c r="D41" t="n">
-        <v>0.319572</v>
+        <v>0.275495</v>
       </c>
     </row>
     <row r="42">
@@ -4257,10 +4257,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.06555800000000001</v>
+        <v>0.058234</v>
       </c>
       <c r="D42" t="n">
-        <v>0.001691</v>
+        <v>0.001458</v>
       </c>
     </row>
     <row r="43">
@@ -4273,10 +4273,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.002886</v>
+        <v>0.002563</v>
       </c>
       <c r="D43" t="n">
-        <v>0.427314</v>
+        <v>0.368376</v>
       </c>
     </row>
     <row r="44">
@@ -4289,10 +4289,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.012343</v>
+        <v>0.010964</v>
       </c>
       <c r="D44" t="n">
-        <v>0.332205</v>
+        <v>0.286385</v>
       </c>
     </row>
     <row r="45">
@@ -4305,10 +4305,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.040722</v>
+        <v>0.036173</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.136039</v>
+        <v>-0.117275</v>
       </c>
     </row>
     <row r="46">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>4.28703</v>
+        <v>3.695737</v>
       </c>
     </row>
     <row r="47">
@@ -4334,10 +4334,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.28206</v>
+        <v>0.250551</v>
       </c>
       <c r="D47" t="n">
-        <v>0.222794</v>
+        <v>0.192065</v>
       </c>
     </row>
     <row r="48">
@@ -4350,7 +4350,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.027082</v>
+        <v>0.024057</v>
       </c>
     </row>
     <row r="49">
@@ -4363,10 +4363,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>-0.01642</v>
+        <v>-0.014586</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.092238</v>
+        <v>-0.079516</v>
       </c>
     </row>
     <row r="50">
@@ -4379,10 +4379,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.393353</v>
+        <v>0.349412</v>
       </c>
       <c r="D50" t="n">
-        <v>0.192921</v>
+        <v>0.166312</v>
       </c>
     </row>
     <row r="51">
@@ -4395,10 +4395,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.447589</v>
+        <v>0.39759</v>
       </c>
       <c r="D51" t="n">
-        <v>0.163581</v>
+        <v>0.141019</v>
       </c>
     </row>
     <row r="52">
@@ -4411,10 +4411,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.055342</v>
+        <v>0.04916</v>
       </c>
       <c r="D52" t="n">
-        <v>0.055885</v>
+        <v>0.048177</v>
       </c>
     </row>
     <row r="53">
@@ -4427,10 +4427,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>-0.015751</v>
+        <v>-0.013992</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.062403</v>
+        <v>-0.053796</v>
       </c>
     </row>
     <row r="54">
@@ -4443,10 +4443,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.033054</v>
+        <v>0.029361</v>
       </c>
       <c r="D54" t="n">
-        <v>0.355547</v>
+        <v>0.306508</v>
       </c>
     </row>
     <row r="55">
@@ -4459,10 +4459,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.350934</v>
+        <v>0.311732</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.014364</v>
+        <v>-0.012383</v>
       </c>
     </row>
     <row r="56">
@@ -4475,10 +4475,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>-0.014722</v>
+        <v>-0.013077</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.1466</v>
+        <v>-0.12638</v>
       </c>
     </row>
     <row r="57">
@@ -4491,10 +4491,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.301045</v>
+        <v>0.267416</v>
       </c>
       <c r="D57" t="n">
-        <v>0.876316</v>
+        <v>0.755449</v>
       </c>
     </row>
     <row r="58">
@@ -4507,10 +4507,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>-0.006819</v>
+        <v>-0.006057</v>
       </c>
       <c r="D58" t="n">
-        <v>0.014716</v>
+        <v>0.012686</v>
       </c>
     </row>
     <row r="59">
@@ -4523,10 +4523,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>-0.009727</v>
+        <v>-0.008640999999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.107713</v>
+        <v>-0.092857</v>
       </c>
     </row>
     <row r="60">
@@ -4539,10 +4539,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>-0.012177</v>
+        <v>-0.010817</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.028651</v>
+        <v>-0.024699</v>
       </c>
     </row>
     <row r="61">
@@ -4555,10 +4555,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>-0.018733</v>
+        <v>-0.01664</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.178983</v>
+        <v>-0.154297</v>
       </c>
     </row>
     <row r="62">
@@ -4571,10 +4571,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.006315</v>
+        <v>0.00561</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.006995</v>
+        <v>-0.00603</v>
       </c>
     </row>
     <row r="63">
@@ -4587,10 +4587,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.112424</v>
+        <v>0.099865</v>
       </c>
       <c r="D63" t="n">
-        <v>0.131235</v>
+        <v>0.113135</v>
       </c>
     </row>
     <row r="64">
@@ -4603,10 +4603,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.013074</v>
+        <v>0.011613</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.015359</v>
+        <v>-0.01324</v>
       </c>
     </row>
     <row r="65">
@@ -4619,10 +4619,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>-0.000378</v>
+        <v>-0.000336</v>
       </c>
       <c r="D65" t="n">
-        <v>0.008351000000000001</v>
+        <v>0.007199</v>
       </c>
     </row>
     <row r="66">
@@ -4635,10 +4635,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.07149999999999999</v>
+        <v>0.063513</v>
       </c>
       <c r="D66" t="n">
-        <v>0.395829</v>
+        <v>0.341234</v>
       </c>
     </row>
     <row r="67">
@@ -4651,10 +4651,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.095418</v>
+        <v>0.084759</v>
       </c>
       <c r="D67" t="n">
-        <v>0.449708</v>
+        <v>0.387681</v>
       </c>
     </row>
     <row r="68">
@@ -4667,10 +4667,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.122218</v>
+        <v>0.108565</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.044614</v>
+        <v>-0.03846</v>
       </c>
     </row>
     <row r="69">
@@ -4683,10 +4683,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1.391063</v>
+        <v>1.23567</v>
       </c>
       <c r="D69" t="n">
-        <v>1.33723</v>
+        <v>1.152791</v>
       </c>
     </row>
     <row r="70">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.257937</v>
+        <v>0.229123</v>
       </c>
       <c r="D70" t="n">
-        <v>0.257688</v>
+        <v>0.222146</v>
       </c>
     </row>
     <row r="71">
@@ -4715,10 +4715,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.039989</v>
+        <v>0.035522</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.020719</v>
+        <v>-0.017861</v>
       </c>
     </row>
     <row r="72">
@@ -4731,10 +4731,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.233347</v>
+        <v>0.20728</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.026243</v>
+        <v>-0.022623</v>
       </c>
     </row>
     <row r="73">
@@ -4747,10 +4747,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.099886</v>
+        <v>0.088728</v>
       </c>
       <c r="D73" t="n">
-        <v>0.6541</v>
+        <v>0.563882</v>
       </c>
     </row>
     <row r="74">
@@ -4763,10 +4763,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.043489</v>
+        <v>0.038631</v>
       </c>
       <c r="D74" t="n">
-        <v>0.111194</v>
+        <v>0.095857</v>
       </c>
     </row>
     <row r="75">
@@ -4779,10 +4779,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>-0.005606</v>
+        <v>-0.00498</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.141829</v>
+        <v>-0.122267</v>
       </c>
     </row>
     <row r="76">
@@ -4795,7 +4795,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>4.233007</v>
+        <v>3.649165</v>
       </c>
     </row>
     <row r="77">
@@ -4808,10 +4808,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.512982</v>
+        <v>0.455677</v>
       </c>
       <c r="D77" t="n">
-        <v>0.731541</v>
+        <v>0.630643</v>
       </c>
     </row>
     <row r="78">
@@ -4824,7 +4824,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.003692</v>
+        <v>0.00328</v>
       </c>
     </row>
     <row r="79">
@@ -4837,10 +4837,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1.023051</v>
+        <v>0.908768</v>
       </c>
       <c r="D79" t="n">
-        <v>0.250203</v>
+        <v>0.215693</v>
       </c>
     </row>
     <row r="80">
@@ -4853,10 +4853,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>-0.006829</v>
+        <v>-0.006066</v>
       </c>
       <c r="D80" t="n">
-        <v>0.066078</v>
+        <v>0.056964</v>
       </c>
     </row>
     <row r="81">
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1.199858</v>
+        <v>1.034366</v>
       </c>
     </row>
     <row r="82">
@@ -4882,10 +4882,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.207616</v>
+        <v>0.184423</v>
       </c>
       <c r="D82" t="n">
-        <v>0.056967</v>
+        <v>0.04911</v>
       </c>
     </row>
     <row r="83">
@@ -4898,10 +4898,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.254412</v>
+        <v>0.225992</v>
       </c>
       <c r="D83" t="n">
-        <v>0.886047</v>
+        <v>0.763838</v>
       </c>
     </row>
     <row r="84">
@@ -4914,10 +4914,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>-0.006718</v>
+        <v>-0.005968</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.116306</v>
+        <v>-0.100265</v>
       </c>
     </row>
     <row r="85">
@@ -4930,10 +4930,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>-0.017744</v>
+        <v>-0.015762</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.154844</v>
+        <v>-0.133487</v>
       </c>
     </row>
     <row r="86">
@@ -4946,10 +4946,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.226417</v>
+        <v>0.201124</v>
       </c>
       <c r="D86" t="n">
-        <v>0.8400069999999999</v>
+        <v>0.724148</v>
       </c>
     </row>
     <row r="87">
@@ -4962,10 +4962,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>-0.017623</v>
+        <v>-0.015654</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.124019</v>
+        <v>-0.106914</v>
       </c>
     </row>
     <row r="88">
@@ -4978,10 +4978,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>-0.016534</v>
+        <v>-0.014687</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.12433</v>
+        <v>-0.107182</v>
       </c>
     </row>
     <row r="89">
@@ -4994,10 +4994,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.043127</v>
+        <v>0.038309</v>
       </c>
       <c r="D89" t="n">
-        <v>0.135275</v>
+        <v>0.116617</v>
       </c>
     </row>
     <row r="90">
@@ -5010,10 +5010,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>-0.004849</v>
+        <v>-0.004308</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.10682</v>
+        <v>-0.092087</v>
       </c>
     </row>
     <row r="91">
@@ -5026,10 +5026,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.00389</v>
+        <v>0.003455</v>
       </c>
       <c r="D91" t="n">
-        <v>0.185207</v>
+        <v>0.159662</v>
       </c>
     </row>
     <row r="92">
@@ -5042,10 +5042,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>-0.008749</v>
+        <v>-0.007771</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.002292</v>
+        <v>-0.001976</v>
       </c>
     </row>
     <row r="93">
@@ -5058,10 +5058,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.014014</v>
+        <v>0.012449</v>
       </c>
       <c r="D93" t="n">
-        <v>0.017232</v>
+        <v>0.014855</v>
       </c>
     </row>
     <row r="94">
@@ -5074,10 +5074,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>-0.009233</v>
+        <v>-0.008201999999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.011446</v>
+        <v>-0.009867000000000001</v>
       </c>
     </row>
     <row r="95">
@@ -5093,7 +5093,7 @@
         <v>2e-06</v>
       </c>
       <c r="D95" t="n">
-        <v>0.245502</v>
+        <v>0.211641</v>
       </c>
     </row>
     <row r="96">
@@ -5106,10 +5106,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.044988</v>
+        <v>0.039963</v>
       </c>
       <c r="D96" t="n">
-        <v>0.339052</v>
+        <v>0.292288</v>
       </c>
     </row>
     <row r="97">
@@ -5122,10 +5122,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>-0.014861</v>
+        <v>-0.013201</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.157786</v>
+        <v>-0.136023</v>
       </c>
     </row>
     <row r="98">
@@ -5138,10 +5138,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>-0.001233</v>
+        <v>-0.001095</v>
       </c>
       <c r="D98" t="n">
-        <v>0.563411</v>
+        <v>0.485702</v>
       </c>
     </row>
     <row r="99">
@@ -5154,10 +5154,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.086886</v>
+        <v>0.07718</v>
       </c>
       <c r="D99" t="n">
-        <v>0.320731</v>
+        <v>0.276494</v>
       </c>
     </row>
     <row r="100">
@@ -5170,10 +5170,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>-0.010034</v>
+        <v>-0.008913000000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.115029</v>
+        <v>0.099163</v>
       </c>
     </row>
     <row r="101">
@@ -5186,10 +5186,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.415034</v>
+        <v>0.368671</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.002788</v>
+        <v>-0.002403</v>
       </c>
     </row>
     <row r="102">
@@ -5202,10 +5202,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.349707</v>
+        <v>0.310642</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.045887</v>
+        <v>-0.039558</v>
       </c>
     </row>
     <row r="103">
@@ -5218,10 +5218,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>-0.012121</v>
+        <v>-0.010767</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.046412</v>
+        <v>-0.040011</v>
       </c>
     </row>
     <row r="104">
@@ -5234,10 +5234,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>-0.012737</v>
+        <v>-0.011314</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.152877</v>
+        <v>-0.131792</v>
       </c>
     </row>
     <row r="105">
@@ -5250,10 +5250,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>-0.013624</v>
+        <v>-0.012102</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.100944</v>
+        <v>-0.087021</v>
       </c>
     </row>
     <row r="106">
@@ -5266,10 +5266,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.0248</v>
+        <v>0.02203</v>
       </c>
       <c r="D106" t="n">
-        <v>0.410989</v>
+        <v>0.354303</v>
       </c>
     </row>
     <row r="107">
@@ -5282,10 +5282,10 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.866093</v>
+        <v>0.769343</v>
       </c>
       <c r="D107" t="n">
-        <v>0.147278</v>
+        <v>0.126965</v>
       </c>
     </row>
     <row r="108">
@@ -5298,10 +5298,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.874244</v>
+        <v>0.7765840000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>0.605196</v>
+        <v>0.521724</v>
       </c>
     </row>
     <row r="109">
@@ -5314,10 +5314,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.009841000000000001</v>
+        <v>0.008742</v>
       </c>
       <c r="D109" t="n">
-        <v>0.141265</v>
+        <v>0.121781</v>
       </c>
     </row>
     <row r="110">
@@ -5330,7 +5330,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0.326608</v>
+        <v>0.28156</v>
       </c>
     </row>
     <row r="111">
@@ -5343,10 +5343,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>-0.013333</v>
+        <v>-0.011844</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.153449</v>
+        <v>-0.132285</v>
       </c>
     </row>
     <row r="112">
@@ -5359,10 +5359,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.016762</v>
+        <v>0.014889</v>
       </c>
       <c r="D112" t="n">
-        <v>0.158145</v>
+        <v>0.136333</v>
       </c>
     </row>
     <row r="113">
@@ -5375,10 +5375,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.033554</v>
+        <v>0.029805</v>
       </c>
       <c r="D113" t="n">
-        <v>0.186997</v>
+        <v>0.161206</v>
       </c>
     </row>
     <row r="114">
@@ -5391,10 +5391,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.000378</v>
+        <v>0.000336</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.07713200000000001</v>
+        <v>-0.066493</v>
       </c>
     </row>
     <row r="115">
@@ -5407,10 +5407,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.175544</v>
+        <v>0.155935</v>
       </c>
       <c r="D115" t="n">
-        <v>0.199764</v>
+        <v>0.172211</v>
       </c>
     </row>
     <row r="116">
@@ -5423,10 +5423,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.241608</v>
+        <v>0.214618</v>
       </c>
       <c r="D116" t="n">
-        <v>0.205736</v>
+        <v>0.177359</v>
       </c>
     </row>
     <row r="117">
@@ -5439,7 +5439,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0.421242</v>
+        <v>0.363142</v>
       </c>
     </row>
     <row r="118">
@@ -5452,10 +5452,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.130144</v>
+        <v>0.115606</v>
       </c>
       <c r="D118" t="n">
-        <v>0.318003</v>
+        <v>0.274142</v>
       </c>
     </row>
     <row r="119">
@@ -5468,10 +5468,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.264115</v>
+        <v>0.234611</v>
       </c>
       <c r="D119" t="n">
-        <v>0.5941610000000001</v>
+        <v>0.512211</v>
       </c>
     </row>
     <row r="120">
@@ -5484,10 +5484,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>-0.0133</v>
+        <v>-0.011814</v>
       </c>
       <c r="D120" t="n">
-        <v>0.025344</v>
+        <v>0.021848</v>
       </c>
     </row>
     <row r="121">
@@ -5500,10 +5500,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1.126073</v>
+        <v>1.000282</v>
       </c>
       <c r="D121" t="n">
-        <v>0.359017</v>
+        <v>0.309499</v>
       </c>
     </row>
     <row r="122">
@@ -5516,10 +5516,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>-0.005368</v>
+        <v>-0.004768</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.093928</v>
+        <v>-0.080973</v>
       </c>
     </row>
     <row r="123">
@@ -5532,10 +5532,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.08402900000000001</v>
+        <v>0.074643</v>
       </c>
       <c r="D123" t="n">
-        <v>0.171041</v>
+        <v>0.14745</v>
       </c>
     </row>
     <row r="124">
@@ -5548,10 +5548,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>-0.017229</v>
+        <v>-0.015304</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.099273</v>
+        <v>-0.08558</v>
       </c>
     </row>
     <row r="125">
@@ -5564,10 +5564,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>1.125756</v>
+        <v>1</v>
       </c>
       <c r="D125" t="n">
-        <v>0.615513</v>
+        <v>0.530617</v>
       </c>
     </row>
     <row r="126">
@@ -5580,10 +5580,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.188127</v>
+        <v>0.167111</v>
       </c>
       <c r="D126" t="n">
-        <v>0.041353</v>
+        <v>0.035649</v>
       </c>
     </row>
     <row r="127">
@@ -5596,10 +5596,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.152863</v>
+        <v>0.135787</v>
       </c>
       <c r="D127" t="n">
-        <v>0.073763</v>
+        <v>0.06358900000000001</v>
       </c>
     </row>
     <row r="128">
@@ -5612,10 +5612,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>-0.016551</v>
+        <v>-0.014702</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.08896800000000001</v>
+        <v>-0.076697</v>
       </c>
     </row>
     <row r="129">
@@ -5628,10 +5628,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.017764</v>
+        <v>0.01578</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.065885</v>
+        <v>-0.056798</v>
       </c>
     </row>
     <row r="130">
@@ -5644,10 +5644,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>-0.008161</v>
+        <v>-0.00725</v>
       </c>
       <c r="D130" t="n">
-        <v>1.185957</v>
+        <v>1.022383</v>
       </c>
     </row>
     <row r="131">
@@ -5660,10 +5660,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.209599</v>
+        <v>0.186185</v>
       </c>
       <c r="D131" t="n">
-        <v>0.141171</v>
+        <v>0.1217</v>
       </c>
     </row>
     <row r="132">
@@ -5676,10 +5676,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.025557</v>
+        <v>0.022702</v>
       </c>
       <c r="D132" t="n">
-        <v>0.940513</v>
+        <v>0.810792</v>
       </c>
     </row>
     <row r="133">
@@ -5692,10 +5692,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>-0.008880000000000001</v>
+        <v>-0.007887999999999999</v>
       </c>
       <c r="D133" t="n">
-        <v>0.036293</v>
+        <v>0.031287</v>
       </c>
     </row>
     <row r="134">
@@ -5708,10 +5708,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.337322</v>
+        <v>0.29964</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.072865</v>
+        <v>-0.062815</v>
       </c>
     </row>
     <row r="135">
@@ -5724,10 +5724,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.34832</v>
+        <v>0.30941</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.00523</v>
+        <v>-0.004509</v>
       </c>
     </row>
     <row r="136">
@@ -5740,7 +5740,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>0.8510259999999999</v>
+        <v>0.733648</v>
       </c>
     </row>
     <row r="137">
@@ -5753,10 +5753,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>-0.013701</v>
+        <v>-0.01217</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.044865</v>
+        <v>-0.038677</v>
       </c>
     </row>
     <row r="138">
@@ -5769,10 +5769,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>-0.012878</v>
+        <v>-0.01144</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.149693</v>
+        <v>-0.129047</v>
       </c>
     </row>
     <row r="139">
@@ -5785,10 +5785,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0.044784</v>
+        <v>0.039782</v>
       </c>
       <c r="D139" t="n">
-        <v>0.30843</v>
+        <v>0.265889</v>
       </c>
     </row>
     <row r="140">
@@ -5801,10 +5801,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>-0.002501</v>
+        <v>-0.002222</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.064911</v>
+        <v>-0.055958</v>
       </c>
     </row>
     <row r="141">
@@ -5817,10 +5817,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>-0.006377</v>
+        <v>-0.005665</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.091937</v>
+        <v>-0.07925599999999999</v>
       </c>
     </row>
     <row r="142">
@@ -5833,10 +5833,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0.051897</v>
+        <v>0.0461</v>
       </c>
       <c r="D142" t="n">
-        <v>0.068936</v>
+        <v>0.059428</v>
       </c>
     </row>
     <row r="143">
@@ -5849,10 +5849,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.032786</v>
+        <v>0.029124</v>
       </c>
       <c r="D143" t="n">
-        <v>0.122708</v>
+        <v>0.105784</v>
       </c>
     </row>
     <row r="144">
@@ -5865,10 +5865,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0.134334</v>
+        <v>0.119328</v>
       </c>
       <c r="D144" t="n">
-        <v>0.289238</v>
+        <v>0.249345</v>
       </c>
     </row>
     <row r="145">
@@ -5881,7 +5881,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>0.342452</v>
+        <v>0.295219</v>
       </c>
     </row>
     <row r="146">
@@ -5894,10 +5894,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>-0.009901999999999999</v>
+        <v>-0.008796</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.102946</v>
+        <v>-0.08874700000000001</v>
       </c>
     </row>
     <row r="147">
@@ -5910,10 +5910,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.057286</v>
+        <v>0.050887</v>
       </c>
       <c r="D147" t="n">
-        <v>0.356921</v>
+        <v>0.307692</v>
       </c>
     </row>
     <row r="148">
@@ -5926,7 +5926,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>0.343942</v>
+        <v>0.296504</v>
       </c>
     </row>
     <row r="149">
@@ -5939,10 +5939,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0.514732</v>
+        <v>0.457232</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.013207</v>
+        <v>-0.011385</v>
       </c>
     </row>
     <row r="150">
@@ -5955,10 +5955,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>1.384891</v>
+        <v>1.230187</v>
       </c>
       <c r="D150" t="n">
-        <v>0.141599</v>
+        <v>0.122069</v>
       </c>
     </row>
     <row r="151">
@@ -5971,10 +5971,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0.192134</v>
+        <v>0.170671</v>
       </c>
       <c r="D151" t="n">
-        <v>0.311233</v>
+        <v>0.268306</v>
       </c>
     </row>
     <row r="152">
@@ -5987,7 +5987,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>-0.029038</v>
+        <v>-0.025033</v>
       </c>
     </row>
     <row r="153">
@@ -6000,10 +6000,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>-0.01936</v>
+        <v>-0.017197</v>
       </c>
       <c r="D153" t="n">
-        <v>0.7313190000000001</v>
+        <v>0.630451</v>
       </c>
     </row>
     <row r="154">
@@ -6016,7 +6016,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>0.23633</v>
+        <v>0.203734</v>
       </c>
     </row>
     <row r="155">
@@ -6029,7 +6029,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>-0.087689</v>
+        <v>-0.075595</v>
       </c>
     </row>
     <row r="156">
@@ -6042,10 +6042,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>-0.009391999999999999</v>
+        <v>-0.008343</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.118484</v>
+        <v>-0.102142</v>
       </c>
     </row>
     <row r="157">
@@ -6058,10 +6058,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0.002996</v>
+        <v>0.002661</v>
       </c>
       <c r="D157" t="n">
-        <v>0.071408</v>
+        <v>0.061559</v>
       </c>
     </row>
     <row r="158">
@@ -6074,10 +6074,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>-0.008368</v>
+        <v>-0.007433</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.029869</v>
+        <v>-0.02575</v>
       </c>
     </row>
     <row r="159">
@@ -6090,10 +6090,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>-0.010846</v>
+        <v>-0.009634999999999999</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.08241</v>
+        <v>-0.071043</v>
       </c>
     </row>
     <row r="160">
@@ -6106,10 +6106,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0.140945</v>
+        <v>0.125201</v>
       </c>
       <c r="D160" t="n">
-        <v>0.322836</v>
+        <v>0.278308</v>
       </c>
     </row>
     <row r="161">
@@ -6122,10 +6122,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0.025468</v>
+        <v>0.022623</v>
       </c>
       <c r="D161" t="n">
-        <v>0.033224</v>
+        <v>0.028641</v>
       </c>
     </row>
     <row r="162">
@@ -6138,10 +6138,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0.1604</v>
+        <v>0.142482</v>
       </c>
       <c r="D162" t="n">
-        <v>0.198431</v>
+        <v>0.171063</v>
       </c>
     </row>
     <row r="163">
@@ -6154,10 +6154,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.02971</v>
+        <v>0.026391</v>
       </c>
       <c r="D163" t="n">
-        <v>0.06927899999999999</v>
+        <v>0.059723</v>
       </c>
     </row>
     <row r="164">
@@ -6170,10 +6170,10 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0.090157</v>
+        <v>0.080086</v>
       </c>
       <c r="D164" t="n">
-        <v>0.077158</v>
+        <v>0.06651600000000001</v>
       </c>
     </row>
     <row r="165">
@@ -6186,10 +6186,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0.059601</v>
+        <v>0.052943</v>
       </c>
       <c r="D165" t="n">
-        <v>0.064512</v>
+        <v>0.055614</v>
       </c>
     </row>
     <row r="166">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0.06058</v>
+        <v>0.053812</v>
       </c>
       <c r="D166" t="n">
-        <v>0.012916</v>
+        <v>0.011135</v>
       </c>
     </row>
     <row r="167">
@@ -6218,10 +6218,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0.315986</v>
+        <v>0.280688</v>
       </c>
       <c r="D167" t="n">
-        <v>0.140987</v>
+        <v>0.121542</v>
       </c>
     </row>
     <row r="168">
@@ -6234,10 +6234,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0.243531</v>
+        <v>0.216327</v>
       </c>
       <c r="D168" t="n">
-        <v>0.234009</v>
+        <v>0.201733</v>
       </c>
     </row>
     <row r="169">
@@ -6250,10 +6250,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0.138872</v>
+        <v>0.123359</v>
       </c>
       <c r="D169" t="n">
-        <v>0.382162</v>
+        <v>0.329452</v>
       </c>
     </row>
     <row r="170">
@@ -6266,10 +6266,10 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0.141495</v>
+        <v>0.125689</v>
       </c>
       <c r="D170" t="n">
-        <v>0.36246</v>
+        <v>0.312467</v>
       </c>
     </row>
     <row r="171">
@@ -6282,10 +6282,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0.286344</v>
+        <v>0.254357</v>
       </c>
       <c r="D171" t="n">
-        <v>0.144851</v>
+        <v>0.124872</v>
       </c>
     </row>
     <row r="172">
@@ -6298,10 +6298,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>-0.003512</v>
+        <v>-0.00312</v>
       </c>
       <c r="D172" t="n">
-        <v>0.09372999999999999</v>
+        <v>0.080803</v>
       </c>
     </row>
     <row r="173">
@@ -6314,10 +6314,10 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>-0.012365</v>
+        <v>-0.010984</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.03337</v>
+        <v>-0.028767</v>
       </c>
     </row>
     <row r="174">
@@ -6330,10 +6330,10 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0.63864</v>
+        <v>0.567299</v>
       </c>
       <c r="D174" t="n">
-        <v>0.158551</v>
+        <v>0.136683</v>
       </c>
     </row>
     <row r="175">
@@ -6346,10 +6346,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0.053469</v>
+        <v>0.047496</v>
       </c>
       <c r="D175" t="n">
-        <v>0.078351</v>
+        <v>0.06754400000000001</v>
       </c>
     </row>
     <row r="176">
@@ -6362,10 +6362,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0.037464</v>
+        <v>0.033279</v>
       </c>
       <c r="D176" t="n">
-        <v>0.06395099999999999</v>
+        <v>0.055131</v>
       </c>
     </row>
     <row r="177">
@@ -6378,10 +6378,10 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>-0.00303</v>
+        <v>-0.002692</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.001412</v>
+        <v>-0.001218</v>
       </c>
     </row>
     <row r="178">
@@ -6394,10 +6394,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>-0.010918</v>
+        <v>-0.009698</v>
       </c>
       <c r="D178" t="n">
-        <v>0.035048</v>
+        <v>0.030214</v>
       </c>
     </row>
     <row r="179">
@@ -6410,10 +6410,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>-0.008269</v>
+        <v>-0.007345</v>
       </c>
       <c r="D179" t="n">
-        <v>0.022804</v>
+        <v>0.019659</v>
       </c>
     </row>
     <row r="180">
@@ -6426,10 +6426,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0.092061</v>
+        <v>0.081777</v>
       </c>
       <c r="D180" t="n">
-        <v>0.134679</v>
+        <v>0.116104</v>
       </c>
     </row>
     <row r="181">
@@ -6442,10 +6442,10 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0.039559</v>
+        <v>0.03514</v>
       </c>
       <c r="D181" t="n">
-        <v>0.148808</v>
+        <v>0.128283</v>
       </c>
     </row>
     <row r="182">
@@ -6458,10 +6458,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0.038795</v>
+        <v>0.034462</v>
       </c>
       <c r="D182" t="n">
-        <v>0.114815</v>
+        <v>0.098979</v>
       </c>
     </row>
     <row r="183">
@@ -6474,10 +6474,10 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0.041037</v>
+        <v>0.036452</v>
       </c>
       <c r="D183" t="n">
-        <v>0.147476</v>
+        <v>0.127135</v>
       </c>
     </row>
     <row r="184">
@@ -6490,10 +6490,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>-0.010326</v>
+        <v>-0.009172</v>
       </c>
       <c r="D184" t="n">
-        <v>0.02421</v>
+        <v>0.020871</v>
       </c>
     </row>
     <row r="185">
@@ -6506,10 +6506,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0.035821</v>
+        <v>0.031819</v>
       </c>
       <c r="D185" t="n">
-        <v>0.075199</v>
+        <v>0.064827</v>
       </c>
     </row>
     <row r="186">
@@ -6522,10 +6522,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>-0.01436</v>
+        <v>-0.012756</v>
       </c>
       <c r="D186" t="n">
-        <v>0.177975</v>
+        <v>0.153427</v>
       </c>
     </row>
     <row r="187">
@@ -6538,10 +6538,10 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0.009214</v>
+        <v>0.008185</v>
       </c>
       <c r="D187" t="n">
-        <v>0.054808</v>
+        <v>0.047248</v>
       </c>
     </row>
     <row r="188">
@@ -6554,10 +6554,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0.172641</v>
+        <v>0.153356</v>
       </c>
       <c r="D188" t="n">
-        <v>0.397595</v>
+        <v>0.342756</v>
       </c>
     </row>
     <row r="189">
@@ -6570,10 +6570,10 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0.047947</v>
+        <v>0.042591</v>
       </c>
       <c r="D189" t="n">
-        <v>0.379188</v>
+        <v>0.326888</v>
       </c>
     </row>
     <row r="190">
@@ -6586,10 +6586,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0.048734</v>
+        <v>0.04329</v>
       </c>
       <c r="D190" t="n">
-        <v>0.385798</v>
+        <v>0.332587</v>
       </c>
     </row>
     <row r="191">
@@ -6602,10 +6602,10 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>0.041706</v>
+        <v>0.037047</v>
       </c>
       <c r="D191" t="n">
-        <v>0.06314500000000001</v>
+        <v>0.054436</v>
       </c>
     </row>
     <row r="192">
@@ -6618,10 +6618,10 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>1.278794</v>
+        <v>1.135942</v>
       </c>
       <c r="D192" t="n">
-        <v>0.123134</v>
+        <v>0.106151</v>
       </c>
     </row>
     <row r="193">
@@ -6634,10 +6634,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0.543712</v>
+        <v>0.482975</v>
       </c>
       <c r="D193" t="n">
-        <v>0.151507</v>
+        <v>0.130611</v>
       </c>
     </row>
     <row r="194">
@@ -6650,10 +6650,10 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>0.075364</v>
+        <v>0.066945</v>
       </c>
       <c r="D194" t="n">
-        <v>0.172341</v>
+        <v>0.14857</v>
       </c>
     </row>
     <row r="195">
@@ -6666,10 +6666,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0.636796</v>
+        <v>0.565661</v>
       </c>
       <c r="D195" t="n">
-        <v>0.144489</v>
+        <v>0.12456</v>
       </c>
     </row>
     <row r="196">
@@ -6682,10 +6682,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>-0.006609</v>
+        <v>-0.005871</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.007591</v>
+        <v>-0.006544</v>
       </c>
     </row>
     <row r="197">
@@ -6698,10 +6698,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0.061994</v>
+        <v>0.055069</v>
       </c>
       <c r="D197" t="n">
-        <v>0.133463</v>
+        <v>0.115055</v>
       </c>
     </row>
     <row r="198">
@@ -6714,10 +6714,10 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>0.010452</v>
+        <v>0.009285</v>
       </c>
       <c r="D198" t="n">
-        <v>0.018917</v>
+        <v>0.016308</v>
       </c>
     </row>
     <row r="199">
@@ -6730,10 +6730,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0.010452</v>
+        <v>0.009285</v>
       </c>
       <c r="D199" t="n">
-        <v>0.018917</v>
+        <v>0.016308</v>
       </c>
     </row>
     <row r="200">
@@ -6746,10 +6746,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>-0.009372</v>
+        <v>-0.008325000000000001</v>
       </c>
       <c r="D200" t="n">
-        <v>-0.051152</v>
+        <v>-0.044097</v>
       </c>
     </row>
     <row r="201">
@@ -6762,10 +6762,10 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>-0.009384</v>
+        <v>-0.008336</v>
       </c>
       <c r="D201" t="n">
-        <v>-0.05114</v>
+        <v>-0.044087</v>
       </c>
     </row>
     <row r="202">
@@ -6778,10 +6778,10 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>-0.009372</v>
+        <v>-0.008325000000000001</v>
       </c>
       <c r="D202" t="n">
-        <v>-0.051152</v>
+        <v>-0.044097</v>
       </c>
     </row>
     <row r="203">
@@ -6794,10 +6794,10 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>0.08505500000000001</v>
+        <v>0.075554</v>
       </c>
       <c r="D203" t="n">
-        <v>0.074268</v>
+        <v>0.064025</v>
       </c>
     </row>
     <row r="204">
@@ -6810,10 +6810,10 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>0.131835</v>
+        <v>0.117108</v>
       </c>
       <c r="D204" t="n">
-        <v>0.090959</v>
+        <v>0.078413</v>
       </c>
     </row>
   </sheetData>
@@ -6865,7 +6865,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.384328</v>
+        <v>0.331319</v>
       </c>
     </row>
     <row r="3">
@@ -6878,10 +6878,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.024651</v>
+        <v>0.021897</v>
       </c>
       <c r="D3" t="n">
-        <v>0.031231</v>
+        <v>0.026923</v>
       </c>
     </row>
     <row r="4">
@@ -6894,10 +6894,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.132114</v>
+        <v>0.117356</v>
       </c>
       <c r="D4" t="n">
-        <v>0.389172</v>
+        <v>0.335495</v>
       </c>
     </row>
     <row r="5">
@@ -6910,10 +6910,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.009176</v>
+        <v>0.008151</v>
       </c>
       <c r="D5" t="n">
-        <v>0.094249</v>
+        <v>0.081249</v>
       </c>
     </row>
     <row r="6">
@@ -6926,7 +6926,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.024399</v>
+        <v>0.021673</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -6942,7 +6942,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.125763</v>
+        <v>0.111715</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -6958,7 +6958,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.626798</v>
+        <v>0.5567800000000001</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -6974,10 +6974,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.209559</v>
+        <v>0.18615</v>
       </c>
       <c r="D9" t="n">
-        <v>0.00602</v>
+        <v>0.00519</v>
       </c>
     </row>
     <row r="10">
@@ -6990,10 +6990,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.09676800000000001</v>
+        <v>0.08595800000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.447835</v>
+        <v>0.386067</v>
       </c>
     </row>
     <row r="11">
@@ -7006,10 +7006,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.635177</v>
+        <v>0.564223</v>
       </c>
       <c r="D11" t="n">
-        <v>0.799249</v>
+        <v>0.689011</v>
       </c>
     </row>
     <row r="12">
@@ -7038,10 +7038,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.032201</v>
+        <v>0.028604</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0.938727</v>
       </c>
     </row>
     <row r="14">
@@ -7054,7 +7054,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.240822</v>
+        <v>0.213921</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -7086,10 +7086,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.012253</v>
+        <v>0.010884</v>
       </c>
       <c r="D16" t="n">
-        <v>0.281139</v>
+        <v>0.242363</v>
       </c>
     </row>
     <row r="17">
@@ -7102,10 +7102,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.011526</v>
+        <v>0.010238</v>
       </c>
       <c r="D17" t="n">
-        <v>0.067661</v>
+        <v>0.058329</v>
       </c>
     </row>
     <row r="18">
@@ -7118,10 +7118,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.109914</v>
+        <v>0.097636</v>
       </c>
       <c r="D18" t="n">
-        <v>0.09302000000000001</v>
+        <v>0.08019</v>
       </c>
     </row>
     <row r="19">
@@ -7134,10 +7134,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.057435</v>
+        <v>0.051019</v>
       </c>
       <c r="D19" t="n">
-        <v>0.092834</v>
+        <v>0.080029</v>
       </c>
     </row>
     <row r="20">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.174912</v>
+        <v>0.155373</v>
       </c>
       <c r="D20" t="n">
-        <v>0.225011</v>
+        <v>0.193976</v>
       </c>
     </row>
     <row r="21">
@@ -7185,7 +7185,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.146816</v>
+        <v>0.126566</v>
       </c>
     </row>
     <row r="23">
@@ -7198,10 +7198,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.003696</v>
+        <v>0.003283</v>
       </c>
       <c r="D23" t="n">
-        <v>0.727084</v>
+        <v>0.6268</v>
       </c>
     </row>
     <row r="24">
@@ -7230,7 +7230,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.354574</v>
+        <v>0.314965</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -7265,7 +7265,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.03026</v>
+        <v>0.026087</v>
       </c>
     </row>
     <row r="28">
@@ -7278,10 +7278,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.15152</v>
+        <v>0.134594</v>
       </c>
       <c r="D28" t="n">
-        <v>0.310517</v>
+        <v>0.267689</v>
       </c>
     </row>
     <row r="29">
@@ -7294,7 +7294,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.08781899999999999</v>
+        <v>0.078009</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -7310,10 +7310,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.107829</v>
+        <v>0.09578399999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>0.556606</v>
+        <v>0.479836</v>
       </c>
     </row>
     <row r="31">
@@ -7342,7 +7342,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.014438</v>
+        <v>0.012825</v>
       </c>
     </row>
     <row r="33">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.211118</v>
+        <v>0.182</v>
       </c>
     </row>
     <row r="35">
@@ -7384,10 +7384,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.135355</v>
+        <v>0.120235</v>
       </c>
       <c r="D35" t="n">
-        <v>0.157118</v>
+        <v>0.135448</v>
       </c>
     </row>
     <row r="36">
@@ -7400,7 +7400,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.33438</v>
+        <v>0.28826</v>
       </c>
     </row>
     <row r="37">
@@ -7413,10 +7413,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.217507</v>
+        <v>0.19321</v>
       </c>
       <c r="D37" t="n">
-        <v>0.822841</v>
+        <v>0.70935</v>
       </c>
     </row>
     <row r="38">
@@ -7429,7 +7429,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.151849</v>
+        <v>0.134886</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -7445,10 +7445,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.472679</v>
+        <v>0.419877</v>
       </c>
       <c r="D39" t="n">
-        <v>0.013945</v>
+        <v>0.012022</v>
       </c>
     </row>
     <row r="40">
@@ -7461,7 +7461,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.751866</v>
+        <v>0.648164</v>
       </c>
     </row>
     <row r="41">
@@ -7474,10 +7474,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.016017</v>
+        <v>0.014228</v>
       </c>
       <c r="D41" t="n">
-        <v>0.319572</v>
+        <v>0.275495</v>
       </c>
     </row>
     <row r="42">
@@ -7490,10 +7490,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.06555800000000001</v>
+        <v>0.058234</v>
       </c>
       <c r="D42" t="n">
-        <v>0.001691</v>
+        <v>0.001458</v>
       </c>
     </row>
     <row r="43">
@@ -7506,10 +7506,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.002886</v>
+        <v>0.002563</v>
       </c>
       <c r="D43" t="n">
-        <v>0.427314</v>
+        <v>0.368376</v>
       </c>
     </row>
     <row r="44">
@@ -7522,10 +7522,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.012343</v>
+        <v>0.010964</v>
       </c>
       <c r="D44" t="n">
-        <v>0.332205</v>
+        <v>0.286385</v>
       </c>
     </row>
     <row r="45">
@@ -7538,7 +7538,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.040722</v>
+        <v>0.036173</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -7567,10 +7567,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.28206</v>
+        <v>0.250551</v>
       </c>
       <c r="D47" t="n">
-        <v>0.222794</v>
+        <v>0.192065</v>
       </c>
     </row>
     <row r="48">
@@ -7583,7 +7583,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.027082</v>
+        <v>0.024057</v>
       </c>
     </row>
     <row r="49">
@@ -7612,10 +7612,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.393353</v>
+        <v>0.349412</v>
       </c>
       <c r="D50" t="n">
-        <v>0.192921</v>
+        <v>0.166312</v>
       </c>
     </row>
     <row r="51">
@@ -7628,10 +7628,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.447589</v>
+        <v>0.39759</v>
       </c>
       <c r="D51" t="n">
-        <v>0.163581</v>
+        <v>0.141019</v>
       </c>
     </row>
     <row r="52">
@@ -7644,10 +7644,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.055342</v>
+        <v>0.04916</v>
       </c>
       <c r="D52" t="n">
-        <v>0.055885</v>
+        <v>0.048177</v>
       </c>
     </row>
     <row r="53">
@@ -7676,10 +7676,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.033054</v>
+        <v>0.029361</v>
       </c>
       <c r="D54" t="n">
-        <v>0.355547</v>
+        <v>0.306508</v>
       </c>
     </row>
     <row r="55">
@@ -7692,7 +7692,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.350934</v>
+        <v>0.311732</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -7724,10 +7724,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.301045</v>
+        <v>0.267416</v>
       </c>
       <c r="D57" t="n">
-        <v>0.876316</v>
+        <v>0.755449</v>
       </c>
     </row>
     <row r="58">
@@ -7743,7 +7743,7 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0.014716</v>
+        <v>0.012686</v>
       </c>
     </row>
     <row r="59">
@@ -7804,7 +7804,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.006315</v>
+        <v>0.00561</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -7820,10 +7820,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.112424</v>
+        <v>0.099865</v>
       </c>
       <c r="D63" t="n">
-        <v>0.131235</v>
+        <v>0.113135</v>
       </c>
     </row>
     <row r="64">
@@ -7836,7 +7836,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.013074</v>
+        <v>0.011613</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>0.008351000000000001</v>
+        <v>0.007199</v>
       </c>
     </row>
     <row r="66">
@@ -7868,10 +7868,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.07149999999999999</v>
+        <v>0.063513</v>
       </c>
       <c r="D66" t="n">
-        <v>0.395829</v>
+        <v>0.341234</v>
       </c>
     </row>
     <row r="67">
@@ -7884,10 +7884,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.095418</v>
+        <v>0.084759</v>
       </c>
       <c r="D67" t="n">
-        <v>0.449708</v>
+        <v>0.387681</v>
       </c>
     </row>
     <row r="68">
@@ -7900,7 +7900,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.122218</v>
+        <v>0.108565</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -7932,10 +7932,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.257937</v>
+        <v>0.229123</v>
       </c>
       <c r="D70" t="n">
-        <v>0.257688</v>
+        <v>0.222146</v>
       </c>
     </row>
     <row r="71">
@@ -7948,7 +7948,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.039989</v>
+        <v>0.035522</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -7964,7 +7964,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.233347</v>
+        <v>0.20728</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -7980,10 +7980,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.099886</v>
+        <v>0.088728</v>
       </c>
       <c r="D73" t="n">
-        <v>0.6541</v>
+        <v>0.563882</v>
       </c>
     </row>
     <row r="74">
@@ -7996,10 +7996,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.043489</v>
+        <v>0.038631</v>
       </c>
       <c r="D74" t="n">
-        <v>0.111194</v>
+        <v>0.095857</v>
       </c>
     </row>
     <row r="75">
@@ -8041,10 +8041,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.512982</v>
+        <v>0.455677</v>
       </c>
       <c r="D77" t="n">
-        <v>0.731541</v>
+        <v>0.630643</v>
       </c>
     </row>
     <row r="78">
@@ -8057,7 +8057,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.003692</v>
+        <v>0.00328</v>
       </c>
     </row>
     <row r="79">
@@ -8070,10 +8070,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>0.908768</v>
       </c>
       <c r="D79" t="n">
-        <v>0.250203</v>
+        <v>0.215693</v>
       </c>
     </row>
     <row r="80">
@@ -8089,7 +8089,7 @@
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>0.066078</v>
+        <v>0.056964</v>
       </c>
     </row>
     <row r="81">
@@ -8115,10 +8115,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.207616</v>
+        <v>0.184423</v>
       </c>
       <c r="D82" t="n">
-        <v>0.056967</v>
+        <v>0.04911</v>
       </c>
     </row>
     <row r="83">
@@ -8131,10 +8131,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.254412</v>
+        <v>0.225992</v>
       </c>
       <c r="D83" t="n">
-        <v>0.886047</v>
+        <v>0.763838</v>
       </c>
     </row>
     <row r="84">
@@ -8179,10 +8179,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.226417</v>
+        <v>0.201124</v>
       </c>
       <c r="D86" t="n">
-        <v>0.8400069999999999</v>
+        <v>0.724148</v>
       </c>
     </row>
     <row r="87">
@@ -8227,10 +8227,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.043127</v>
+        <v>0.038309</v>
       </c>
       <c r="D89" t="n">
-        <v>0.135275</v>
+        <v>0.116617</v>
       </c>
     </row>
     <row r="90">
@@ -8259,10 +8259,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.00389</v>
+        <v>0.003455</v>
       </c>
       <c r="D91" t="n">
-        <v>0.185207</v>
+        <v>0.159662</v>
       </c>
     </row>
     <row r="92">
@@ -8291,10 +8291,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.014014</v>
+        <v>0.012449</v>
       </c>
       <c r="D93" t="n">
-        <v>0.017232</v>
+        <v>0.014855</v>
       </c>
     </row>
     <row r="94">
@@ -8326,7 +8326,7 @@
         <v>2e-06</v>
       </c>
       <c r="D95" t="n">
-        <v>0.245502</v>
+        <v>0.211641</v>
       </c>
     </row>
     <row r="96">
@@ -8339,10 +8339,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.044988</v>
+        <v>0.039963</v>
       </c>
       <c r="D96" t="n">
-        <v>0.339052</v>
+        <v>0.292288</v>
       </c>
     </row>
     <row r="97">
@@ -8374,7 +8374,7 @@
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>0.563411</v>
+        <v>0.485702</v>
       </c>
     </row>
     <row r="99">
@@ -8387,10 +8387,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.086886</v>
+        <v>0.07718</v>
       </c>
       <c r="D99" t="n">
-        <v>0.320731</v>
+        <v>0.276494</v>
       </c>
     </row>
     <row r="100">
@@ -8406,7 +8406,7 @@
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>0.115029</v>
+        <v>0.099163</v>
       </c>
     </row>
     <row r="101">
@@ -8419,7 +8419,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.415034</v>
+        <v>0.368671</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
@@ -8435,7 +8435,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.349707</v>
+        <v>0.310642</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -8499,10 +8499,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.0248</v>
+        <v>0.02203</v>
       </c>
       <c r="D106" t="n">
-        <v>0.410989</v>
+        <v>0.354303</v>
       </c>
     </row>
     <row r="107">
@@ -8515,10 +8515,10 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.866093</v>
+        <v>0.769343</v>
       </c>
       <c r="D107" t="n">
-        <v>0.147278</v>
+        <v>0.126965</v>
       </c>
     </row>
     <row r="108">
@@ -8531,10 +8531,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.874244</v>
+        <v>0.7765840000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>0.605196</v>
+        <v>0.521724</v>
       </c>
     </row>
     <row r="109">
@@ -8547,10 +8547,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.009841000000000001</v>
+        <v>0.008742</v>
       </c>
       <c r="D109" t="n">
-        <v>0.141265</v>
+        <v>0.121781</v>
       </c>
     </row>
     <row r="110">
@@ -8563,7 +8563,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0.326608</v>
+        <v>0.28156</v>
       </c>
     </row>
     <row r="111">
@@ -8592,10 +8592,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.016762</v>
+        <v>0.014889</v>
       </c>
       <c r="D112" t="n">
-        <v>0.158145</v>
+        <v>0.136333</v>
       </c>
     </row>
     <row r="113">
@@ -8608,10 +8608,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.033554</v>
+        <v>0.029805</v>
       </c>
       <c r="D113" t="n">
-        <v>0.186997</v>
+        <v>0.161206</v>
       </c>
     </row>
     <row r="114">
@@ -8624,7 +8624,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.000378</v>
+        <v>0.000336</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
@@ -8640,10 +8640,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.175544</v>
+        <v>0.155935</v>
       </c>
       <c r="D115" t="n">
-        <v>0.199764</v>
+        <v>0.172211</v>
       </c>
     </row>
     <row r="116">
@@ -8656,10 +8656,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.241608</v>
+        <v>0.214618</v>
       </c>
       <c r="D116" t="n">
-        <v>0.205736</v>
+        <v>0.177359</v>
       </c>
     </row>
     <row r="117">
@@ -8672,7 +8672,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0.421242</v>
+        <v>0.363142</v>
       </c>
     </row>
     <row r="118">
@@ -8685,10 +8685,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.130144</v>
+        <v>0.115606</v>
       </c>
       <c r="D118" t="n">
-        <v>0.318003</v>
+        <v>0.274142</v>
       </c>
     </row>
     <row r="119">
@@ -8701,10 +8701,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.264115</v>
+        <v>0.234611</v>
       </c>
       <c r="D119" t="n">
-        <v>0.5941610000000001</v>
+        <v>0.512211</v>
       </c>
     </row>
     <row r="120">
@@ -8720,7 +8720,7 @@
         <v>0</v>
       </c>
       <c r="D120" t="n">
-        <v>0.025344</v>
+        <v>0.021848</v>
       </c>
     </row>
     <row r="121">
@@ -8736,7 +8736,7 @@
         <v>1</v>
       </c>
       <c r="D121" t="n">
-        <v>0.359017</v>
+        <v>0.309499</v>
       </c>
     </row>
     <row r="122">
@@ -8765,10 +8765,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.08402900000000001</v>
+        <v>0.074643</v>
       </c>
       <c r="D123" t="n">
-        <v>0.171041</v>
+        <v>0.14745</v>
       </c>
     </row>
     <row r="124">
@@ -8800,7 +8800,7 @@
         <v>1</v>
       </c>
       <c r="D125" t="n">
-        <v>0.615513</v>
+        <v>0.530617</v>
       </c>
     </row>
     <row r="126">
@@ -8813,10 +8813,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.188127</v>
+        <v>0.167111</v>
       </c>
       <c r="D126" t="n">
-        <v>0.041353</v>
+        <v>0.035649</v>
       </c>
     </row>
     <row r="127">
@@ -8829,10 +8829,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.152863</v>
+        <v>0.135787</v>
       </c>
       <c r="D127" t="n">
-        <v>0.073763</v>
+        <v>0.06358900000000001</v>
       </c>
     </row>
     <row r="128">
@@ -8861,7 +8861,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.017764</v>
+        <v>0.01578</v>
       </c>
       <c r="D129" t="n">
         <v>0</v>
@@ -8893,10 +8893,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.209599</v>
+        <v>0.186185</v>
       </c>
       <c r="D131" t="n">
-        <v>0.141171</v>
+        <v>0.1217</v>
       </c>
     </row>
     <row r="132">
@@ -8909,10 +8909,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.025557</v>
+        <v>0.022702</v>
       </c>
       <c r="D132" t="n">
-        <v>0.940513</v>
+        <v>0.810792</v>
       </c>
     </row>
     <row r="133">
@@ -8928,7 +8928,7 @@
         <v>0</v>
       </c>
       <c r="D133" t="n">
-        <v>0.036293</v>
+        <v>0.031287</v>
       </c>
     </row>
     <row r="134">
@@ -8941,7 +8941,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.337322</v>
+        <v>0.29964</v>
       </c>
       <c r="D134" t="n">
         <v>0</v>
@@ -8957,7 +8957,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.34832</v>
+        <v>0.30941</v>
       </c>
       <c r="D135" t="n">
         <v>0</v>
@@ -8973,7 +8973,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>0.8510259999999999</v>
+        <v>0.733648</v>
       </c>
     </row>
     <row r="137">
@@ -9018,10 +9018,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0.044784</v>
+        <v>0.039782</v>
       </c>
       <c r="D139" t="n">
-        <v>0.30843</v>
+        <v>0.265889</v>
       </c>
     </row>
     <row r="140">
@@ -9066,10 +9066,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0.051897</v>
+        <v>0.0461</v>
       </c>
       <c r="D142" t="n">
-        <v>0.068936</v>
+        <v>0.059428</v>
       </c>
     </row>
     <row r="143">
@@ -9082,10 +9082,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.032786</v>
+        <v>0.029124</v>
       </c>
       <c r="D143" t="n">
-        <v>0.122708</v>
+        <v>0.105784</v>
       </c>
     </row>
     <row r="144">
@@ -9098,10 +9098,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0.134334</v>
+        <v>0.119328</v>
       </c>
       <c r="D144" t="n">
-        <v>0.289238</v>
+        <v>0.249345</v>
       </c>
     </row>
     <row r="145">
@@ -9114,7 +9114,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>0.342452</v>
+        <v>0.295219</v>
       </c>
     </row>
     <row r="146">
@@ -9143,10 +9143,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.057286</v>
+        <v>0.050887</v>
       </c>
       <c r="D147" t="n">
-        <v>0.356921</v>
+        <v>0.307692</v>
       </c>
     </row>
     <row r="148">
@@ -9159,7 +9159,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>0.343942</v>
+        <v>0.296504</v>
       </c>
     </row>
     <row r="149">
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0.514732</v>
+        <v>0.457232</v>
       </c>
       <c r="D149" t="n">
         <v>0</v>
@@ -9191,7 +9191,7 @@
         <v>1</v>
       </c>
       <c r="D150" t="n">
-        <v>0.141599</v>
+        <v>0.122069</v>
       </c>
     </row>
     <row r="151">
@@ -9204,10 +9204,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0.192134</v>
+        <v>0.170671</v>
       </c>
       <c r="D151" t="n">
-        <v>0.311233</v>
+        <v>0.268306</v>
       </c>
     </row>
     <row r="152">
@@ -9236,7 +9236,7 @@
         <v>0</v>
       </c>
       <c r="D153" t="n">
-        <v>0.7313190000000001</v>
+        <v>0.630451</v>
       </c>
     </row>
     <row r="154">
@@ -9249,7 +9249,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>0.23633</v>
+        <v>0.203734</v>
       </c>
     </row>
     <row r="155">
@@ -9291,10 +9291,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0.002996</v>
+        <v>0.002661</v>
       </c>
       <c r="D157" t="n">
-        <v>0.071408</v>
+        <v>0.061559</v>
       </c>
     </row>
     <row r="158">
@@ -9339,10 +9339,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0.140945</v>
+        <v>0.125201</v>
       </c>
       <c r="D160" t="n">
-        <v>0.322836</v>
+        <v>0.278308</v>
       </c>
     </row>
     <row r="161">
@@ -9355,10 +9355,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0.025468</v>
+        <v>0.022623</v>
       </c>
       <c r="D161" t="n">
-        <v>0.033224</v>
+        <v>0.028641</v>
       </c>
     </row>
     <row r="162">
@@ -9371,10 +9371,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0.1604</v>
+        <v>0.142482</v>
       </c>
       <c r="D162" t="n">
-        <v>0.198431</v>
+        <v>0.171063</v>
       </c>
     </row>
     <row r="163">
@@ -9387,10 +9387,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.02971</v>
+        <v>0.026391</v>
       </c>
       <c r="D163" t="n">
-        <v>0.06927899999999999</v>
+        <v>0.059723</v>
       </c>
     </row>
     <row r="164">
@@ -9403,10 +9403,10 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0.090157</v>
+        <v>0.080086</v>
       </c>
       <c r="D164" t="n">
-        <v>0.077158</v>
+        <v>0.06651600000000001</v>
       </c>
     </row>
     <row r="165">
@@ -9419,10 +9419,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0.059601</v>
+        <v>0.052943</v>
       </c>
       <c r="D165" t="n">
-        <v>0.064512</v>
+        <v>0.055614</v>
       </c>
     </row>
     <row r="166">
@@ -9435,10 +9435,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0.06058</v>
+        <v>0.053812</v>
       </c>
       <c r="D166" t="n">
-        <v>0.012916</v>
+        <v>0.011135</v>
       </c>
     </row>
     <row r="167">
@@ -9451,10 +9451,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0.315986</v>
+        <v>0.280688</v>
       </c>
       <c r="D167" t="n">
-        <v>0.140987</v>
+        <v>0.121542</v>
       </c>
     </row>
     <row r="168">
@@ -9467,10 +9467,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0.243531</v>
+        <v>0.216327</v>
       </c>
       <c r="D168" t="n">
-        <v>0.234009</v>
+        <v>0.201733</v>
       </c>
     </row>
     <row r="169">
@@ -9483,10 +9483,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0.138872</v>
+        <v>0.123359</v>
       </c>
       <c r="D169" t="n">
-        <v>0.382162</v>
+        <v>0.329452</v>
       </c>
     </row>
     <row r="170">
@@ -9499,10 +9499,10 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0.141495</v>
+        <v>0.125689</v>
       </c>
       <c r="D170" t="n">
-        <v>0.36246</v>
+        <v>0.312467</v>
       </c>
     </row>
     <row r="171">
@@ -9515,10 +9515,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0.286344</v>
+        <v>0.254357</v>
       </c>
       <c r="D171" t="n">
-        <v>0.144851</v>
+        <v>0.124872</v>
       </c>
     </row>
     <row r="172">
@@ -9534,7 +9534,7 @@
         <v>0</v>
       </c>
       <c r="D172" t="n">
-        <v>0.09372999999999999</v>
+        <v>0.080803</v>
       </c>
     </row>
     <row r="173">
@@ -9563,10 +9563,10 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0.63864</v>
+        <v>0.567299</v>
       </c>
       <c r="D174" t="n">
-        <v>0.158551</v>
+        <v>0.136683</v>
       </c>
     </row>
     <row r="175">
@@ -9579,10 +9579,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0.053469</v>
+        <v>0.047496</v>
       </c>
       <c r="D175" t="n">
-        <v>0.078351</v>
+        <v>0.06754400000000001</v>
       </c>
     </row>
     <row r="176">
@@ -9595,10 +9595,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0.037464</v>
+        <v>0.033279</v>
       </c>
       <c r="D176" t="n">
-        <v>0.06395099999999999</v>
+        <v>0.055131</v>
       </c>
     </row>
     <row r="177">
@@ -9630,7 +9630,7 @@
         <v>0</v>
       </c>
       <c r="D178" t="n">
-        <v>0.035048</v>
+        <v>0.030214</v>
       </c>
     </row>
     <row r="179">
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="D179" t="n">
-        <v>0.022804</v>
+        <v>0.019659</v>
       </c>
     </row>
     <row r="180">
@@ -9659,10 +9659,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0.092061</v>
+        <v>0.081777</v>
       </c>
       <c r="D180" t="n">
-        <v>0.134679</v>
+        <v>0.116104</v>
       </c>
     </row>
     <row r="181">
@@ -9675,10 +9675,10 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0.039559</v>
+        <v>0.03514</v>
       </c>
       <c r="D181" t="n">
-        <v>0.148808</v>
+        <v>0.128283</v>
       </c>
     </row>
     <row r="182">
@@ -9691,10 +9691,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0.038795</v>
+        <v>0.034462</v>
       </c>
       <c r="D182" t="n">
-        <v>0.114815</v>
+        <v>0.098979</v>
       </c>
     </row>
     <row r="183">
@@ -9707,10 +9707,10 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0.041037</v>
+        <v>0.036452</v>
       </c>
       <c r="D183" t="n">
-        <v>0.147476</v>
+        <v>0.127135</v>
       </c>
     </row>
     <row r="184">
@@ -9726,7 +9726,7 @@
         <v>0</v>
       </c>
       <c r="D184" t="n">
-        <v>0.02421</v>
+        <v>0.020871</v>
       </c>
     </row>
     <row r="185">
@@ -9739,10 +9739,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0.035821</v>
+        <v>0.031819</v>
       </c>
       <c r="D185" t="n">
-        <v>0.075199</v>
+        <v>0.064827</v>
       </c>
     </row>
     <row r="186">
@@ -9758,7 +9758,7 @@
         <v>0</v>
       </c>
       <c r="D186" t="n">
-        <v>0.177975</v>
+        <v>0.153427</v>
       </c>
     </row>
     <row r="187">
@@ -9771,10 +9771,10 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0.009214</v>
+        <v>0.008185</v>
       </c>
       <c r="D187" t="n">
-        <v>0.054808</v>
+        <v>0.047248</v>
       </c>
     </row>
     <row r="188">
@@ -9787,10 +9787,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0.172641</v>
+        <v>0.153356</v>
       </c>
       <c r="D188" t="n">
-        <v>0.397595</v>
+        <v>0.342756</v>
       </c>
     </row>
     <row r="189">
@@ -9803,10 +9803,10 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0.047947</v>
+        <v>0.042591</v>
       </c>
       <c r="D189" t="n">
-        <v>0.379188</v>
+        <v>0.326888</v>
       </c>
     </row>
     <row r="190">
@@ -9819,10 +9819,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0.048734</v>
+        <v>0.04329</v>
       </c>
       <c r="D190" t="n">
-        <v>0.385798</v>
+        <v>0.332587</v>
       </c>
     </row>
     <row r="191">
@@ -9835,10 +9835,10 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>0.041706</v>
+        <v>0.037047</v>
       </c>
       <c r="D191" t="n">
-        <v>0.06314500000000001</v>
+        <v>0.054436</v>
       </c>
     </row>
     <row r="192">
@@ -9854,7 +9854,7 @@
         <v>1</v>
       </c>
       <c r="D192" t="n">
-        <v>0.123134</v>
+        <v>0.106151</v>
       </c>
     </row>
     <row r="193">
@@ -9867,10 +9867,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0.543712</v>
+        <v>0.482975</v>
       </c>
       <c r="D193" t="n">
-        <v>0.151507</v>
+        <v>0.130611</v>
       </c>
     </row>
     <row r="194">
@@ -9883,10 +9883,10 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>0.075364</v>
+        <v>0.066945</v>
       </c>
       <c r="D194" t="n">
-        <v>0.172341</v>
+        <v>0.14857</v>
       </c>
     </row>
     <row r="195">
@@ -9899,10 +9899,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0.636796</v>
+        <v>0.565661</v>
       </c>
       <c r="D195" t="n">
-        <v>0.144489</v>
+        <v>0.12456</v>
       </c>
     </row>
     <row r="196">
@@ -9931,10 +9931,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0.061994</v>
+        <v>0.055069</v>
       </c>
       <c r="D197" t="n">
-        <v>0.133463</v>
+        <v>0.115055</v>
       </c>
     </row>
     <row r="198">
@@ -9947,10 +9947,10 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>0.010452</v>
+        <v>0.009285</v>
       </c>
       <c r="D198" t="n">
-        <v>0.018917</v>
+        <v>0.016308</v>
       </c>
     </row>
     <row r="199">
@@ -9963,10 +9963,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0.010452</v>
+        <v>0.009285</v>
       </c>
       <c r="D199" t="n">
-        <v>0.018917</v>
+        <v>0.016308</v>
       </c>
     </row>
     <row r="200">
@@ -10027,10 +10027,10 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>0.08505500000000001</v>
+        <v>0.075554</v>
       </c>
       <c r="D203" t="n">
-        <v>0.074268</v>
+        <v>0.064025</v>
       </c>
     </row>
     <row r="204">
@@ -10043,10 +10043,10 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>0.131835</v>
+        <v>0.117108</v>
       </c>
       <c r="D204" t="n">
-        <v>0.090959</v>
+        <v>0.078413</v>
       </c>
     </row>
   </sheetData>
@@ -10105,16 +10105,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.015615</v>
+        <v>-0.01387</v>
       </c>
       <c r="D2" t="n">
-        <v>0.384328</v>
+        <v>0.331319</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.384328</v>
+        <v>0.331319</v>
       </c>
     </row>
     <row r="3">
@@ -10127,16 +10127,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.024651</v>
+        <v>0.021897</v>
       </c>
       <c r="D3" t="n">
-        <v>0.031231</v>
+        <v>0.026923</v>
       </c>
       <c r="E3" t="n">
-        <v>0.024651</v>
+        <v>0.021897</v>
       </c>
       <c r="F3" t="n">
-        <v>0.031231</v>
+        <v>0.026923</v>
       </c>
     </row>
     <row r="4">
@@ -10149,16 +10149,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.132114</v>
+        <v>0.117356</v>
       </c>
       <c r="D4" t="n">
-        <v>0.389172</v>
+        <v>0.335495</v>
       </c>
       <c r="E4" t="n">
-        <v>0.132114</v>
+        <v>0.117356</v>
       </c>
       <c r="F4" t="n">
-        <v>0.389172</v>
+        <v>0.335495</v>
       </c>
     </row>
     <row r="5">
@@ -10171,16 +10171,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.009176</v>
+        <v>0.008151</v>
       </c>
       <c r="D5" t="n">
-        <v>0.094249</v>
+        <v>0.081249</v>
       </c>
       <c r="E5" t="n">
-        <v>0.009176</v>
+        <v>0.008151</v>
       </c>
       <c r="F5" t="n">
-        <v>0.094249</v>
+        <v>0.081249</v>
       </c>
     </row>
     <row r="6">
@@ -10193,16 +10193,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.008351000000000001</v>
+        <v>-0.007199</v>
       </c>
       <c r="D6" t="n">
-        <v>0.024399</v>
+        <v>0.021673</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.024399</v>
+        <v>0.021673</v>
       </c>
     </row>
     <row r="7">
@@ -10215,13 +10215,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.125763</v>
+        <v>0.111715</v>
       </c>
       <c r="D7" t="n">
-        <v>1.159993</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.125763</v>
+        <v>0.111715</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -10237,16 +10237,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.005538</v>
+        <v>-0.004774</v>
       </c>
       <c r="D8" t="n">
-        <v>0.626798</v>
+        <v>0.5567800000000001</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.626798</v>
+        <v>0.5567800000000001</v>
       </c>
     </row>
     <row r="9">
@@ -10259,16 +10259,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.00602</v>
+        <v>0.00519</v>
       </c>
       <c r="D9" t="n">
-        <v>0.209559</v>
+        <v>0.18615</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00602</v>
+        <v>0.00519</v>
       </c>
       <c r="F9" t="n">
-        <v>0.209559</v>
+        <v>0.18615</v>
       </c>
     </row>
     <row r="10">
@@ -10281,16 +10281,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.09676800000000001</v>
+        <v>0.08595800000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.447835</v>
+        <v>0.386067</v>
       </c>
       <c r="E10" t="n">
-        <v>0.09676800000000001</v>
+        <v>0.08595800000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>0.447835</v>
+        <v>0.386067</v>
       </c>
     </row>
     <row r="11">
@@ -10303,16 +10303,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.635177</v>
+        <v>0.564223</v>
       </c>
       <c r="D11" t="n">
-        <v>0.799249</v>
+        <v>0.689011</v>
       </c>
       <c r="E11" t="n">
-        <v>0.635177</v>
+        <v>0.564223</v>
       </c>
       <c r="F11" t="n">
-        <v>0.799249</v>
+        <v>0.689011</v>
       </c>
     </row>
     <row r="12">
@@ -10325,10 +10325,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.07967</v>
+        <v>-0.06868200000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.002874</v>
+        <v>-0.002553</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -10347,16 +10347,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.032201</v>
+        <v>0.028604</v>
       </c>
       <c r="D13" t="n">
-        <v>1.088917</v>
+        <v>0.938727</v>
       </c>
       <c r="E13" t="n">
-        <v>0.032201</v>
+        <v>0.028604</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0.938727</v>
       </c>
     </row>
     <row r="14">
@@ -10369,16 +10369,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.010595</v>
+        <v>-0.009134</v>
       </c>
       <c r="D14" t="n">
-        <v>0.240822</v>
+        <v>0.213921</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.240822</v>
+        <v>0.213921</v>
       </c>
     </row>
     <row r="15">
@@ -10391,10 +10391,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.110281</v>
+        <v>-0.09507</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.015889</v>
+        <v>-0.014114</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -10413,16 +10413,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.012253</v>
+        <v>0.010884</v>
       </c>
       <c r="D16" t="n">
-        <v>0.281139</v>
+        <v>0.242363</v>
       </c>
       <c r="E16" t="n">
-        <v>0.012253</v>
+        <v>0.010884</v>
       </c>
       <c r="F16" t="n">
-        <v>0.281139</v>
+        <v>0.242363</v>
       </c>
     </row>
     <row r="17">
@@ -10435,16 +10435,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.011526</v>
+        <v>0.010238</v>
       </c>
       <c r="D17" t="n">
-        <v>0.067661</v>
+        <v>0.058329</v>
       </c>
       <c r="E17" t="n">
-        <v>0.011526</v>
+        <v>0.010238</v>
       </c>
       <c r="F17" t="n">
-        <v>0.067661</v>
+        <v>0.058329</v>
       </c>
     </row>
     <row r="18">
@@ -10457,16 +10457,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.09302000000000001</v>
+        <v>0.08019</v>
       </c>
       <c r="D18" t="n">
-        <v>0.109914</v>
+        <v>0.097636</v>
       </c>
       <c r="E18" t="n">
-        <v>0.09302000000000001</v>
+        <v>0.08019</v>
       </c>
       <c r="F18" t="n">
-        <v>0.109914</v>
+        <v>0.097636</v>
       </c>
     </row>
     <row r="19">
@@ -10479,16 +10479,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.057435</v>
+        <v>0.051019</v>
       </c>
       <c r="D19" t="n">
-        <v>0.092834</v>
+        <v>0.080029</v>
       </c>
       <c r="E19" t="n">
-        <v>0.057435</v>
+        <v>0.051019</v>
       </c>
       <c r="F19" t="n">
-        <v>0.092834</v>
+        <v>0.080029</v>
       </c>
     </row>
     <row r="20">
@@ -10501,16 +10501,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.174912</v>
+        <v>0.155373</v>
       </c>
       <c r="D20" t="n">
-        <v>0.225011</v>
+        <v>0.193976</v>
       </c>
       <c r="E20" t="n">
-        <v>0.174912</v>
+        <v>0.155373</v>
       </c>
       <c r="F20" t="n">
-        <v>0.225011</v>
+        <v>0.193976</v>
       </c>
     </row>
     <row r="21">
@@ -10523,10 +10523,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.145249</v>
+        <v>-0.125216</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.008643</v>
+        <v>-0.007678</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -10545,16 +10545,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.014891</v>
+        <v>-0.013228</v>
       </c>
       <c r="D22" t="n">
-        <v>0.146816</v>
+        <v>0.126566</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.146816</v>
+        <v>0.126566</v>
       </c>
     </row>
     <row r="23">
@@ -10567,16 +10567,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.003696</v>
+        <v>0.003283</v>
       </c>
       <c r="D23" t="n">
-        <v>0.727084</v>
+        <v>0.6268</v>
       </c>
       <c r="E23" t="n">
-        <v>0.003696</v>
+        <v>0.003283</v>
       </c>
       <c r="F23" t="n">
-        <v>0.727084</v>
+        <v>0.6268</v>
       </c>
     </row>
     <row r="24">
@@ -10589,10 +10589,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.083756</v>
+        <v>-0.072204</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.009084999999999999</v>
+        <v>-0.008070000000000001</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -10611,16 +10611,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.037573</v>
+        <v>-0.032391</v>
       </c>
       <c r="D25" t="n">
-        <v>0.354574</v>
+        <v>0.314965</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.354574</v>
+        <v>0.314965</v>
       </c>
     </row>
     <row r="26">
@@ -10633,10 +10633,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.037201</v>
+        <v>-0.03207</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.014454</v>
+        <v>-0.012839</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -10655,16 +10655,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.010231</v>
+        <v>-0.009088000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>0.03026</v>
+        <v>0.026087</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.03026</v>
+        <v>0.026087</v>
       </c>
     </row>
     <row r="28">
@@ -10677,16 +10677,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.15152</v>
+        <v>0.134594</v>
       </c>
       <c r="D28" t="n">
-        <v>0.310517</v>
+        <v>0.267689</v>
       </c>
       <c r="E28" t="n">
-        <v>0.15152</v>
+        <v>0.134594</v>
       </c>
       <c r="F28" t="n">
-        <v>0.310517</v>
+        <v>0.267689</v>
       </c>
     </row>
     <row r="29">
@@ -10699,16 +10699,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.046411</v>
+        <v>-0.04001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.08781899999999999</v>
+        <v>0.078009</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.08781899999999999</v>
+        <v>0.078009</v>
       </c>
     </row>
     <row r="30">
@@ -10721,16 +10721,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.107829</v>
+        <v>0.09578399999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>0.556606</v>
+        <v>0.479836</v>
       </c>
       <c r="E30" t="n">
-        <v>0.107829</v>
+        <v>0.09578399999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>0.556606</v>
+        <v>0.479836</v>
       </c>
     </row>
     <row r="31">
@@ -10743,10 +10743,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.070453</v>
+        <v>-0.060736</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.016906</v>
+        <v>-0.015017</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -10765,16 +10765,16 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.014438</v>
+        <v>0.012825</v>
       </c>
       <c r="D32" t="n">
-        <v>0.014438</v>
+        <v>0.012825</v>
       </c>
       <c r="E32" t="n">
-        <v>0.014438</v>
+        <v>0.012825</v>
       </c>
       <c r="F32" t="n">
-        <v>0.014438</v>
+        <v>0.012825</v>
       </c>
     </row>
     <row r="33">
@@ -10787,10 +10787,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.03355</v>
+        <v>-0.028923</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.03355</v>
+        <v>-0.028923</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -10809,16 +10809,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.0065</v>
+        <v>-0.005774</v>
       </c>
       <c r="D34" t="n">
-        <v>0.211118</v>
+        <v>0.182</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.211118</v>
+        <v>0.182</v>
       </c>
     </row>
     <row r="35">
@@ -10831,16 +10831,16 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.135355</v>
+        <v>0.120235</v>
       </c>
       <c r="D35" t="n">
-        <v>0.157118</v>
+        <v>0.135448</v>
       </c>
       <c r="E35" t="n">
-        <v>0.135355</v>
+        <v>0.120235</v>
       </c>
       <c r="F35" t="n">
-        <v>0.157118</v>
+        <v>0.135448</v>
       </c>
     </row>
     <row r="36">
@@ -10853,16 +10853,16 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.33438</v>
+        <v>0.28826</v>
       </c>
       <c r="D36" t="n">
-        <v>0.33438</v>
+        <v>0.28826</v>
       </c>
       <c r="E36" t="n">
-        <v>0.33438</v>
+        <v>0.28826</v>
       </c>
       <c r="F36" t="n">
-        <v>0.33438</v>
+        <v>0.28826</v>
       </c>
     </row>
     <row r="37">
@@ -10875,16 +10875,16 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.217507</v>
+        <v>0.19321</v>
       </c>
       <c r="D37" t="n">
-        <v>0.822841</v>
+        <v>0.70935</v>
       </c>
       <c r="E37" t="n">
-        <v>0.217507</v>
+        <v>0.19321</v>
       </c>
       <c r="F37" t="n">
-        <v>0.822841</v>
+        <v>0.70935</v>
       </c>
     </row>
     <row r="38">
@@ -10897,16 +10897,16 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-0.004431</v>
+        <v>-0.003819</v>
       </c>
       <c r="D38" t="n">
-        <v>0.151849</v>
+        <v>0.134886</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.151849</v>
+        <v>0.134886</v>
       </c>
     </row>
     <row r="39">
@@ -10919,16 +10919,16 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.013945</v>
+        <v>0.012022</v>
       </c>
       <c r="D39" t="n">
-        <v>0.472679</v>
+        <v>0.419877</v>
       </c>
       <c r="E39" t="n">
-        <v>0.013945</v>
+        <v>0.012022</v>
       </c>
       <c r="F39" t="n">
-        <v>0.472679</v>
+        <v>0.419877</v>
       </c>
     </row>
     <row r="40">
@@ -10941,16 +10941,16 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.751866</v>
+        <v>0.648164</v>
       </c>
       <c r="D40" t="n">
-        <v>0.751866</v>
+        <v>0.648164</v>
       </c>
       <c r="E40" t="n">
-        <v>0.751866</v>
+        <v>0.648164</v>
       </c>
       <c r="F40" t="n">
-        <v>0.751866</v>
+        <v>0.648164</v>
       </c>
     </row>
     <row r="41">
@@ -10963,16 +10963,16 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.016017</v>
+        <v>0.014228</v>
       </c>
       <c r="D41" t="n">
-        <v>0.319572</v>
+        <v>0.275495</v>
       </c>
       <c r="E41" t="n">
-        <v>0.016017</v>
+        <v>0.014228</v>
       </c>
       <c r="F41" t="n">
-        <v>0.319572</v>
+        <v>0.275495</v>
       </c>
     </row>
     <row r="42">
@@ -10985,16 +10985,16 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.001691</v>
+        <v>0.001458</v>
       </c>
       <c r="D42" t="n">
-        <v>0.06555800000000001</v>
+        <v>0.058234</v>
       </c>
       <c r="E42" t="n">
-        <v>0.001691</v>
+        <v>0.001458</v>
       </c>
       <c r="F42" t="n">
-        <v>0.06555800000000001</v>
+        <v>0.058234</v>
       </c>
     </row>
     <row r="43">
@@ -11007,16 +11007,16 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.002886</v>
+        <v>0.002563</v>
       </c>
       <c r="D43" t="n">
-        <v>0.427314</v>
+        <v>0.368376</v>
       </c>
       <c r="E43" t="n">
-        <v>0.002886</v>
+        <v>0.002563</v>
       </c>
       <c r="F43" t="n">
-        <v>0.427314</v>
+        <v>0.368376</v>
       </c>
     </row>
     <row r="44">
@@ -11029,16 +11029,16 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.012343</v>
+        <v>0.010964</v>
       </c>
       <c r="D44" t="n">
-        <v>0.332205</v>
+        <v>0.286385</v>
       </c>
       <c r="E44" t="n">
-        <v>0.012343</v>
+        <v>0.010964</v>
       </c>
       <c r="F44" t="n">
-        <v>0.332205</v>
+        <v>0.286385</v>
       </c>
     </row>
     <row r="45">
@@ -11051,16 +11051,16 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>-0.136039</v>
+        <v>-0.117275</v>
       </c>
       <c r="D45" t="n">
-        <v>0.040722</v>
+        <v>0.036173</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.040722</v>
+        <v>0.036173</v>
       </c>
     </row>
     <row r="46">
@@ -11073,10 +11073,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4.28703</v>
+        <v>3.695737</v>
       </c>
       <c r="D46" t="n">
-        <v>4.28703</v>
+        <v>3.695737</v>
       </c>
       <c r="E46" t="n">
         <v>1</v>
@@ -11095,16 +11095,16 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.222794</v>
+        <v>0.192065</v>
       </c>
       <c r="D47" t="n">
-        <v>0.28206</v>
+        <v>0.250551</v>
       </c>
       <c r="E47" t="n">
-        <v>0.222794</v>
+        <v>0.192065</v>
       </c>
       <c r="F47" t="n">
-        <v>0.28206</v>
+        <v>0.250551</v>
       </c>
     </row>
     <row r="48">
@@ -11117,16 +11117,16 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.027082</v>
+        <v>0.024057</v>
       </c>
       <c r="D48" t="n">
-        <v>0.027082</v>
+        <v>0.024057</v>
       </c>
       <c r="E48" t="n">
-        <v>0.027082</v>
+        <v>0.024057</v>
       </c>
       <c r="F48" t="n">
-        <v>0.027082</v>
+        <v>0.024057</v>
       </c>
     </row>
     <row r="49">
@@ -11139,10 +11139,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>-0.092238</v>
+        <v>-0.079516</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.01642</v>
+        <v>-0.014586</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -11161,16 +11161,16 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.192921</v>
+        <v>0.166312</v>
       </c>
       <c r="D50" t="n">
-        <v>0.393353</v>
+        <v>0.349412</v>
       </c>
       <c r="E50" t="n">
-        <v>0.192921</v>
+        <v>0.166312</v>
       </c>
       <c r="F50" t="n">
-        <v>0.393353</v>
+        <v>0.349412</v>
       </c>
     </row>
     <row r="51">
@@ -11183,16 +11183,16 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.163581</v>
+        <v>0.141019</v>
       </c>
       <c r="D51" t="n">
-        <v>0.447589</v>
+        <v>0.39759</v>
       </c>
       <c r="E51" t="n">
-        <v>0.163581</v>
+        <v>0.141019</v>
       </c>
       <c r="F51" t="n">
-        <v>0.447589</v>
+        <v>0.39759</v>
       </c>
     </row>
     <row r="52">
@@ -11205,16 +11205,16 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.055342</v>
+        <v>0.048177</v>
       </c>
       <c r="D52" t="n">
-        <v>0.055885</v>
+        <v>0.04916</v>
       </c>
       <c r="E52" t="n">
-        <v>0.055342</v>
+        <v>0.048177</v>
       </c>
       <c r="F52" t="n">
-        <v>0.055885</v>
+        <v>0.04916</v>
       </c>
     </row>
     <row r="53">
@@ -11227,10 +11227,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>-0.062403</v>
+        <v>-0.053796</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.015751</v>
+        <v>-0.013992</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
@@ -11249,16 +11249,16 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.033054</v>
+        <v>0.029361</v>
       </c>
       <c r="D54" t="n">
-        <v>0.355547</v>
+        <v>0.306508</v>
       </c>
       <c r="E54" t="n">
-        <v>0.033054</v>
+        <v>0.029361</v>
       </c>
       <c r="F54" t="n">
-        <v>0.355547</v>
+        <v>0.306508</v>
       </c>
     </row>
     <row r="55">
@@ -11271,16 +11271,16 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>-0.014364</v>
+        <v>-0.012383</v>
       </c>
       <c r="D55" t="n">
-        <v>0.350934</v>
+        <v>0.311732</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0.350934</v>
+        <v>0.311732</v>
       </c>
     </row>
     <row r="56">
@@ -11293,10 +11293,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>-0.1466</v>
+        <v>-0.12638</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.014722</v>
+        <v>-0.013077</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -11315,16 +11315,16 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.301045</v>
+        <v>0.267416</v>
       </c>
       <c r="D57" t="n">
-        <v>0.876316</v>
+        <v>0.755449</v>
       </c>
       <c r="E57" t="n">
-        <v>0.301045</v>
+        <v>0.267416</v>
       </c>
       <c r="F57" t="n">
-        <v>0.876316</v>
+        <v>0.755449</v>
       </c>
     </row>
     <row r="58">
@@ -11337,16 +11337,16 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>-0.006819</v>
+        <v>-0.006057</v>
       </c>
       <c r="D58" t="n">
-        <v>0.014716</v>
+        <v>0.012686</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0.014716</v>
+        <v>0.012686</v>
       </c>
     </row>
     <row r="59">
@@ -11359,10 +11359,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>-0.107713</v>
+        <v>-0.092857</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.009727</v>
+        <v>-0.008640999999999999</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
@@ -11381,10 +11381,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>-0.028651</v>
+        <v>-0.024699</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.012177</v>
+        <v>-0.010817</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
@@ -11403,10 +11403,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>-0.178983</v>
+        <v>-0.154297</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.018733</v>
+        <v>-0.01664</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
@@ -11425,16 +11425,16 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>-0.006995</v>
+        <v>-0.00603</v>
       </c>
       <c r="D62" t="n">
-        <v>0.006315</v>
+        <v>0.00561</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0.006315</v>
+        <v>0.00561</v>
       </c>
     </row>
     <row r="63">
@@ -11447,16 +11447,16 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.112424</v>
+        <v>0.099865</v>
       </c>
       <c r="D63" t="n">
-        <v>0.131235</v>
+        <v>0.113135</v>
       </c>
       <c r="E63" t="n">
-        <v>0.112424</v>
+        <v>0.099865</v>
       </c>
       <c r="F63" t="n">
-        <v>0.131235</v>
+        <v>0.113135</v>
       </c>
     </row>
     <row r="64">
@@ -11469,16 +11469,16 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>-0.015359</v>
+        <v>-0.01324</v>
       </c>
       <c r="D64" t="n">
-        <v>0.013074</v>
+        <v>0.011613</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.013074</v>
+        <v>0.011613</v>
       </c>
     </row>
     <row r="65">
@@ -11491,16 +11491,16 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>-0.000378</v>
+        <v>-0.000336</v>
       </c>
       <c r="D65" t="n">
-        <v>0.008351000000000001</v>
+        <v>0.007199</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0.008351000000000001</v>
+        <v>0.007199</v>
       </c>
     </row>
     <row r="66">
@@ -11513,16 +11513,16 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.07149999999999999</v>
+        <v>0.063513</v>
       </c>
       <c r="D66" t="n">
-        <v>0.395829</v>
+        <v>0.341234</v>
       </c>
       <c r="E66" t="n">
-        <v>0.07149999999999999</v>
+        <v>0.063513</v>
       </c>
       <c r="F66" t="n">
-        <v>0.395829</v>
+        <v>0.341234</v>
       </c>
     </row>
     <row r="67">
@@ -11535,16 +11535,16 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.095418</v>
+        <v>0.084759</v>
       </c>
       <c r="D67" t="n">
-        <v>0.449708</v>
+        <v>0.387681</v>
       </c>
       <c r="E67" t="n">
-        <v>0.095418</v>
+        <v>0.084759</v>
       </c>
       <c r="F67" t="n">
-        <v>0.449708</v>
+        <v>0.387681</v>
       </c>
     </row>
     <row r="68">
@@ -11557,16 +11557,16 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>-0.044614</v>
+        <v>-0.03846</v>
       </c>
       <c r="D68" t="n">
-        <v>0.122218</v>
+        <v>0.108565</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0.122218</v>
+        <v>0.108565</v>
       </c>
     </row>
     <row r="69">
@@ -11579,10 +11579,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1.33723</v>
+        <v>1.152791</v>
       </c>
       <c r="D69" t="n">
-        <v>1.391063</v>
+        <v>1.23567</v>
       </c>
       <c r="E69" t="n">
         <v>1</v>
@@ -11601,16 +11601,16 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.257688</v>
+        <v>0.222146</v>
       </c>
       <c r="D70" t="n">
-        <v>0.257937</v>
+        <v>0.229123</v>
       </c>
       <c r="E70" t="n">
-        <v>0.257688</v>
+        <v>0.222146</v>
       </c>
       <c r="F70" t="n">
-        <v>0.257937</v>
+        <v>0.229123</v>
       </c>
     </row>
     <row r="71">
@@ -11623,16 +11623,16 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>-0.020719</v>
+        <v>-0.017861</v>
       </c>
       <c r="D71" t="n">
-        <v>0.039989</v>
+        <v>0.035522</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.039989</v>
+        <v>0.035522</v>
       </c>
     </row>
     <row r="72">
@@ -11645,16 +11645,16 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>-0.026243</v>
+        <v>-0.022623</v>
       </c>
       <c r="D72" t="n">
-        <v>0.233347</v>
+        <v>0.20728</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>0.233347</v>
+        <v>0.20728</v>
       </c>
     </row>
     <row r="73">
@@ -11667,16 +11667,16 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.099886</v>
+        <v>0.088728</v>
       </c>
       <c r="D73" t="n">
-        <v>0.6541</v>
+        <v>0.563882</v>
       </c>
       <c r="E73" t="n">
-        <v>0.099886</v>
+        <v>0.088728</v>
       </c>
       <c r="F73" t="n">
-        <v>0.6541</v>
+        <v>0.563882</v>
       </c>
     </row>
     <row r="74">
@@ -11689,16 +11689,16 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.043489</v>
+        <v>0.038631</v>
       </c>
       <c r="D74" t="n">
-        <v>0.111194</v>
+        <v>0.095857</v>
       </c>
       <c r="E74" t="n">
-        <v>0.043489</v>
+        <v>0.038631</v>
       </c>
       <c r="F74" t="n">
-        <v>0.111194</v>
+        <v>0.095857</v>
       </c>
     </row>
     <row r="75">
@@ -11711,10 +11711,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>-0.141829</v>
+        <v>-0.122267</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.005606</v>
+        <v>-0.00498</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
@@ -11733,10 +11733,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4.233007</v>
+        <v>3.649165</v>
       </c>
       <c r="D76" t="n">
-        <v>4.233007</v>
+        <v>3.649165</v>
       </c>
       <c r="E76" t="n">
         <v>1</v>
@@ -11755,16 +11755,16 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.512982</v>
+        <v>0.455677</v>
       </c>
       <c r="D77" t="n">
-        <v>0.731541</v>
+        <v>0.630643</v>
       </c>
       <c r="E77" t="n">
-        <v>0.512982</v>
+        <v>0.455677</v>
       </c>
       <c r="F77" t="n">
-        <v>0.731541</v>
+        <v>0.630643</v>
       </c>
     </row>
     <row r="78">
@@ -11777,16 +11777,16 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.003692</v>
+        <v>0.00328</v>
       </c>
       <c r="D78" t="n">
-        <v>0.003692</v>
+        <v>0.00328</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003692</v>
+        <v>0.00328</v>
       </c>
       <c r="F78" t="n">
-        <v>0.003692</v>
+        <v>0.00328</v>
       </c>
     </row>
     <row r="79">
@@ -11799,16 +11799,16 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.250203</v>
+        <v>0.215693</v>
       </c>
       <c r="D79" t="n">
-        <v>1.023051</v>
+        <v>0.908768</v>
       </c>
       <c r="E79" t="n">
-        <v>0.250203</v>
+        <v>0.215693</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>0.908768</v>
       </c>
     </row>
     <row r="80">
@@ -11821,16 +11821,16 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>-0.006829</v>
+        <v>-0.006066</v>
       </c>
       <c r="D80" t="n">
-        <v>0.066078</v>
+        <v>0.056964</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>0.066078</v>
+        <v>0.056964</v>
       </c>
     </row>
     <row r="81">
@@ -11843,10 +11843,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1.199858</v>
+        <v>1.034366</v>
       </c>
       <c r="D81" t="n">
-        <v>1.199858</v>
+        <v>1.034366</v>
       </c>
       <c r="E81" t="n">
         <v>1</v>
@@ -11865,16 +11865,16 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.056967</v>
+        <v>0.04911</v>
       </c>
       <c r="D82" t="n">
-        <v>0.207616</v>
+        <v>0.184423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.056967</v>
+        <v>0.04911</v>
       </c>
       <c r="F82" t="n">
-        <v>0.207616</v>
+        <v>0.184423</v>
       </c>
     </row>
     <row r="83">
@@ -11887,16 +11887,16 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.254412</v>
+        <v>0.225992</v>
       </c>
       <c r="D83" t="n">
-        <v>0.886047</v>
+        <v>0.763838</v>
       </c>
       <c r="E83" t="n">
-        <v>0.254412</v>
+        <v>0.225992</v>
       </c>
       <c r="F83" t="n">
-        <v>0.886047</v>
+        <v>0.763838</v>
       </c>
     </row>
     <row r="84">
@@ -11909,10 +11909,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>-0.116306</v>
+        <v>-0.100265</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.006718</v>
+        <v>-0.005968</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
@@ -11931,10 +11931,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>-0.154844</v>
+        <v>-0.133487</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.017744</v>
+        <v>-0.015762</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
@@ -11953,16 +11953,16 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.226417</v>
+        <v>0.201124</v>
       </c>
       <c r="D86" t="n">
-        <v>0.8400069999999999</v>
+        <v>0.724148</v>
       </c>
       <c r="E86" t="n">
-        <v>0.226417</v>
+        <v>0.201124</v>
       </c>
       <c r="F86" t="n">
-        <v>0.8400069999999999</v>
+        <v>0.724148</v>
       </c>
     </row>
     <row r="87">
@@ -11975,10 +11975,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>-0.124019</v>
+        <v>-0.106914</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.017623</v>
+        <v>-0.015654</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
@@ -11997,10 +11997,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>-0.12433</v>
+        <v>-0.107182</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.016534</v>
+        <v>-0.014687</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
@@ -12019,16 +12019,16 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.043127</v>
+        <v>0.038309</v>
       </c>
       <c r="D89" t="n">
-        <v>0.135275</v>
+        <v>0.116617</v>
       </c>
       <c r="E89" t="n">
-        <v>0.043127</v>
+        <v>0.038309</v>
       </c>
       <c r="F89" t="n">
-        <v>0.135275</v>
+        <v>0.116617</v>
       </c>
     </row>
     <row r="90">
@@ -12041,10 +12041,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>-0.10682</v>
+        <v>-0.092087</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.004849</v>
+        <v>-0.004308</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
@@ -12063,16 +12063,16 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.00389</v>
+        <v>0.003455</v>
       </c>
       <c r="D91" t="n">
-        <v>0.185207</v>
+        <v>0.159662</v>
       </c>
       <c r="E91" t="n">
-        <v>0.00389</v>
+        <v>0.003455</v>
       </c>
       <c r="F91" t="n">
-        <v>0.185207</v>
+        <v>0.159662</v>
       </c>
     </row>
     <row r="92">
@@ -12085,10 +12085,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>-0.008749</v>
+        <v>-0.007771</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.002292</v>
+        <v>-0.001976</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
@@ -12107,16 +12107,16 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.014014</v>
+        <v>0.012449</v>
       </c>
       <c r="D93" t="n">
-        <v>0.017232</v>
+        <v>0.014855</v>
       </c>
       <c r="E93" t="n">
-        <v>0.014014</v>
+        <v>0.012449</v>
       </c>
       <c r="F93" t="n">
-        <v>0.017232</v>
+        <v>0.014855</v>
       </c>
     </row>
     <row r="94">
@@ -12129,10 +12129,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>-0.011446</v>
+        <v>-0.009867000000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.009233</v>
+        <v>-0.008201999999999999</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
@@ -12154,13 +12154,13 @@
         <v>2e-06</v>
       </c>
       <c r="D95" t="n">
-        <v>0.245502</v>
+        <v>0.211641</v>
       </c>
       <c r="E95" t="n">
         <v>2e-06</v>
       </c>
       <c r="F95" t="n">
-        <v>0.245502</v>
+        <v>0.211641</v>
       </c>
     </row>
     <row r="96">
@@ -12173,16 +12173,16 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.044988</v>
+        <v>0.039963</v>
       </c>
       <c r="D96" t="n">
-        <v>0.339052</v>
+        <v>0.292288</v>
       </c>
       <c r="E96" t="n">
-        <v>0.044988</v>
+        <v>0.039963</v>
       </c>
       <c r="F96" t="n">
-        <v>0.339052</v>
+        <v>0.292288</v>
       </c>
     </row>
     <row r="97">
@@ -12195,10 +12195,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>-0.157786</v>
+        <v>-0.136023</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.014861</v>
+        <v>-0.013201</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
@@ -12217,16 +12217,16 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>-0.001233</v>
+        <v>-0.001095</v>
       </c>
       <c r="D98" t="n">
-        <v>0.563411</v>
+        <v>0.485702</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>0.563411</v>
+        <v>0.485702</v>
       </c>
     </row>
     <row r="99">
@@ -12239,16 +12239,16 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.086886</v>
+        <v>0.07718</v>
       </c>
       <c r="D99" t="n">
-        <v>0.320731</v>
+        <v>0.276494</v>
       </c>
       <c r="E99" t="n">
-        <v>0.086886</v>
+        <v>0.07718</v>
       </c>
       <c r="F99" t="n">
-        <v>0.320731</v>
+        <v>0.276494</v>
       </c>
     </row>
     <row r="100">
@@ -12261,16 +12261,16 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>-0.010034</v>
+        <v>-0.008913000000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.115029</v>
+        <v>0.099163</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>0.115029</v>
+        <v>0.099163</v>
       </c>
     </row>
     <row r="101">
@@ -12283,16 +12283,16 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>-0.002788</v>
+        <v>-0.002403</v>
       </c>
       <c r="D101" t="n">
-        <v>0.415034</v>
+        <v>0.368671</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>0.415034</v>
+        <v>0.368671</v>
       </c>
     </row>
     <row r="102">
@@ -12305,16 +12305,16 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>-0.045887</v>
+        <v>-0.039558</v>
       </c>
       <c r="D102" t="n">
-        <v>0.349707</v>
+        <v>0.310642</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>0.349707</v>
+        <v>0.310642</v>
       </c>
     </row>
     <row r="103">
@@ -12327,10 +12327,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>-0.046412</v>
+        <v>-0.040011</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.012121</v>
+        <v>-0.010767</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
@@ -12349,10 +12349,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>-0.152877</v>
+        <v>-0.131792</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.012737</v>
+        <v>-0.011314</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
@@ -12371,10 +12371,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>-0.100944</v>
+        <v>-0.087021</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.013624</v>
+        <v>-0.012102</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
@@ -12393,16 +12393,16 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.0248</v>
+        <v>0.02203</v>
       </c>
       <c r="D106" t="n">
-        <v>0.410989</v>
+        <v>0.354303</v>
       </c>
       <c r="E106" t="n">
-        <v>0.0248</v>
+        <v>0.02203</v>
       </c>
       <c r="F106" t="n">
-        <v>0.410989</v>
+        <v>0.354303</v>
       </c>
     </row>
     <row r="107">
@@ -12415,16 +12415,16 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.147278</v>
+        <v>0.126965</v>
       </c>
       <c r="D107" t="n">
-        <v>0.866093</v>
+        <v>0.769343</v>
       </c>
       <c r="E107" t="n">
-        <v>0.147278</v>
+        <v>0.126965</v>
       </c>
       <c r="F107" t="n">
-        <v>0.866093</v>
+        <v>0.769343</v>
       </c>
     </row>
     <row r="108">
@@ -12437,16 +12437,16 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.605196</v>
+        <v>0.521724</v>
       </c>
       <c r="D108" t="n">
-        <v>0.874244</v>
+        <v>0.7765840000000001</v>
       </c>
       <c r="E108" t="n">
-        <v>0.605196</v>
+        <v>0.521724</v>
       </c>
       <c r="F108" t="n">
-        <v>0.874244</v>
+        <v>0.7765840000000001</v>
       </c>
     </row>
     <row r="109">
@@ -12459,16 +12459,16 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.009841000000000001</v>
+        <v>0.008742</v>
       </c>
       <c r="D109" t="n">
-        <v>0.141265</v>
+        <v>0.121781</v>
       </c>
       <c r="E109" t="n">
-        <v>0.009841000000000001</v>
+        <v>0.008742</v>
       </c>
       <c r="F109" t="n">
-        <v>0.141265</v>
+        <v>0.121781</v>
       </c>
     </row>
     <row r="110">
@@ -12481,16 +12481,16 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.326608</v>
+        <v>0.28156</v>
       </c>
       <c r="D110" t="n">
-        <v>0.326608</v>
+        <v>0.28156</v>
       </c>
       <c r="E110" t="n">
-        <v>0.326608</v>
+        <v>0.28156</v>
       </c>
       <c r="F110" t="n">
-        <v>0.326608</v>
+        <v>0.28156</v>
       </c>
     </row>
     <row r="111">
@@ -12503,10 +12503,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>-0.153449</v>
+        <v>-0.132285</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.013333</v>
+        <v>-0.011844</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
@@ -12525,16 +12525,16 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.016762</v>
+        <v>0.014889</v>
       </c>
       <c r="D112" t="n">
-        <v>0.158145</v>
+        <v>0.136333</v>
       </c>
       <c r="E112" t="n">
-        <v>0.016762</v>
+        <v>0.014889</v>
       </c>
       <c r="F112" t="n">
-        <v>0.158145</v>
+        <v>0.136333</v>
       </c>
     </row>
     <row r="113">
@@ -12547,16 +12547,16 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.033554</v>
+        <v>0.029805</v>
       </c>
       <c r="D113" t="n">
-        <v>0.186997</v>
+        <v>0.161206</v>
       </c>
       <c r="E113" t="n">
-        <v>0.033554</v>
+        <v>0.029805</v>
       </c>
       <c r="F113" t="n">
-        <v>0.186997</v>
+        <v>0.161206</v>
       </c>
     </row>
     <row r="114">
@@ -12569,16 +12569,16 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>-0.07713200000000001</v>
+        <v>-0.066493</v>
       </c>
       <c r="D114" t="n">
-        <v>0.000378</v>
+        <v>0.000336</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>0.000378</v>
+        <v>0.000336</v>
       </c>
     </row>
     <row r="115">
@@ -12591,16 +12591,16 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.175544</v>
+        <v>0.155935</v>
       </c>
       <c r="D115" t="n">
-        <v>0.199764</v>
+        <v>0.172211</v>
       </c>
       <c r="E115" t="n">
-        <v>0.175544</v>
+        <v>0.155935</v>
       </c>
       <c r="F115" t="n">
-        <v>0.199764</v>
+        <v>0.172211</v>
       </c>
     </row>
     <row r="116">
@@ -12613,16 +12613,16 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.205736</v>
+        <v>0.177359</v>
       </c>
       <c r="D116" t="n">
-        <v>0.241608</v>
+        <v>0.214618</v>
       </c>
       <c r="E116" t="n">
-        <v>0.205736</v>
+        <v>0.177359</v>
       </c>
       <c r="F116" t="n">
-        <v>0.241608</v>
+        <v>0.214618</v>
       </c>
     </row>
     <row r="117">
@@ -12635,16 +12635,16 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.421242</v>
+        <v>0.363142</v>
       </c>
       <c r="D117" t="n">
-        <v>0.421242</v>
+        <v>0.363142</v>
       </c>
       <c r="E117" t="n">
-        <v>0.421242</v>
+        <v>0.363142</v>
       </c>
       <c r="F117" t="n">
-        <v>0.421242</v>
+        <v>0.363142</v>
       </c>
     </row>
     <row r="118">
@@ -12657,16 +12657,16 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.130144</v>
+        <v>0.115606</v>
       </c>
       <c r="D118" t="n">
-        <v>0.318003</v>
+        <v>0.274142</v>
       </c>
       <c r="E118" t="n">
-        <v>0.130144</v>
+        <v>0.115606</v>
       </c>
       <c r="F118" t="n">
-        <v>0.318003</v>
+        <v>0.274142</v>
       </c>
     </row>
     <row r="119">
@@ -12679,16 +12679,16 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.264115</v>
+        <v>0.234611</v>
       </c>
       <c r="D119" t="n">
-        <v>0.5941610000000001</v>
+        <v>0.512211</v>
       </c>
       <c r="E119" t="n">
-        <v>0.264115</v>
+        <v>0.234611</v>
       </c>
       <c r="F119" t="n">
-        <v>0.5941610000000001</v>
+        <v>0.512211</v>
       </c>
     </row>
     <row r="120">
@@ -12701,16 +12701,16 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>-0.0133</v>
+        <v>-0.011814</v>
       </c>
       <c r="D120" t="n">
-        <v>0.025344</v>
+        <v>0.021848</v>
       </c>
       <c r="E120" t="n">
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>0.025344</v>
+        <v>0.021848</v>
       </c>
     </row>
     <row r="121">
@@ -12723,13 +12723,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.359017</v>
+        <v>0.309499</v>
       </c>
       <c r="D121" t="n">
-        <v>1.126073</v>
+        <v>1.000282</v>
       </c>
       <c r="E121" t="n">
-        <v>0.359017</v>
+        <v>0.309499</v>
       </c>
       <c r="F121" t="n">
         <v>1</v>
@@ -12745,10 +12745,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>-0.093928</v>
+        <v>-0.080973</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.005368</v>
+        <v>-0.004768</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
@@ -12767,16 +12767,16 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.08402900000000001</v>
+        <v>0.074643</v>
       </c>
       <c r="D123" t="n">
-        <v>0.171041</v>
+        <v>0.14745</v>
       </c>
       <c r="E123" t="n">
-        <v>0.08402900000000001</v>
+        <v>0.074643</v>
       </c>
       <c r="F123" t="n">
-        <v>0.171041</v>
+        <v>0.14745</v>
       </c>
     </row>
     <row r="124">
@@ -12789,10 +12789,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>-0.099273</v>
+        <v>-0.08558</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.017229</v>
+        <v>-0.015304</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
@@ -12811,13 +12811,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.615513</v>
+        <v>0.530617</v>
       </c>
       <c r="D125" t="n">
-        <v>1.125756</v>
+        <v>1</v>
       </c>
       <c r="E125" t="n">
-        <v>0.615513</v>
+        <v>0.530617</v>
       </c>
       <c r="F125" t="n">
         <v>1</v>
@@ -12833,16 +12833,16 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.041353</v>
+        <v>0.035649</v>
       </c>
       <c r="D126" t="n">
-        <v>0.188127</v>
+        <v>0.167111</v>
       </c>
       <c r="E126" t="n">
-        <v>0.041353</v>
+        <v>0.035649</v>
       </c>
       <c r="F126" t="n">
-        <v>0.188127</v>
+        <v>0.167111</v>
       </c>
     </row>
     <row r="127">
@@ -12855,16 +12855,16 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.073763</v>
+        <v>0.06358900000000001</v>
       </c>
       <c r="D127" t="n">
-        <v>0.152863</v>
+        <v>0.135787</v>
       </c>
       <c r="E127" t="n">
-        <v>0.073763</v>
+        <v>0.06358900000000001</v>
       </c>
       <c r="F127" t="n">
-        <v>0.152863</v>
+        <v>0.135787</v>
       </c>
     </row>
     <row r="128">
@@ -12877,10 +12877,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>-0.08896800000000001</v>
+        <v>-0.076697</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.016551</v>
+        <v>-0.014702</v>
       </c>
       <c r="E128" t="n">
         <v>0</v>
@@ -12899,16 +12899,16 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>-0.065885</v>
+        <v>-0.056798</v>
       </c>
       <c r="D129" t="n">
-        <v>0.017764</v>
+        <v>0.01578</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0.017764</v>
+        <v>0.01578</v>
       </c>
     </row>
     <row r="130">
@@ -12921,10 +12921,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>-0.008161</v>
+        <v>-0.00725</v>
       </c>
       <c r="D130" t="n">
-        <v>1.185957</v>
+        <v>1.022383</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
@@ -12943,16 +12943,16 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.141171</v>
+        <v>0.1217</v>
       </c>
       <c r="D131" t="n">
-        <v>0.209599</v>
+        <v>0.186185</v>
       </c>
       <c r="E131" t="n">
-        <v>0.141171</v>
+        <v>0.1217</v>
       </c>
       <c r="F131" t="n">
-        <v>0.209599</v>
+        <v>0.186185</v>
       </c>
     </row>
     <row r="132">
@@ -12965,16 +12965,16 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.025557</v>
+        <v>0.022702</v>
       </c>
       <c r="D132" t="n">
-        <v>0.940513</v>
+        <v>0.810792</v>
       </c>
       <c r="E132" t="n">
-        <v>0.025557</v>
+        <v>0.022702</v>
       </c>
       <c r="F132" t="n">
-        <v>0.940513</v>
+        <v>0.810792</v>
       </c>
     </row>
     <row r="133">
@@ -12987,16 +12987,16 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>-0.008880000000000001</v>
+        <v>-0.007887999999999999</v>
       </c>
       <c r="D133" t="n">
-        <v>0.036293</v>
+        <v>0.031287</v>
       </c>
       <c r="E133" t="n">
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>0.036293</v>
+        <v>0.031287</v>
       </c>
     </row>
     <row r="134">
@@ -13009,16 +13009,16 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>-0.072865</v>
+        <v>-0.062815</v>
       </c>
       <c r="D134" t="n">
-        <v>0.337322</v>
+        <v>0.29964</v>
       </c>
       <c r="E134" t="n">
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.337322</v>
+        <v>0.29964</v>
       </c>
     </row>
     <row r="135">
@@ -13031,16 +13031,16 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>-0.00523</v>
+        <v>-0.004509</v>
       </c>
       <c r="D135" t="n">
-        <v>0.34832</v>
+        <v>0.30941</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>0.34832</v>
+        <v>0.30941</v>
       </c>
     </row>
     <row r="136">
@@ -13053,16 +13053,16 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.8510259999999999</v>
+        <v>0.733648</v>
       </c>
       <c r="D136" t="n">
-        <v>0.8510259999999999</v>
+        <v>0.733648</v>
       </c>
       <c r="E136" t="n">
-        <v>0.8510259999999999</v>
+        <v>0.733648</v>
       </c>
       <c r="F136" t="n">
-        <v>0.8510259999999999</v>
+        <v>0.733648</v>
       </c>
     </row>
     <row r="137">
@@ -13075,10 +13075,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>-0.044865</v>
+        <v>-0.038677</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.013701</v>
+        <v>-0.01217</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
@@ -13097,10 +13097,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>-0.149693</v>
+        <v>-0.129047</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.012878</v>
+        <v>-0.01144</v>
       </c>
       <c r="E138" t="n">
         <v>0</v>
@@ -13119,16 +13119,16 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0.044784</v>
+        <v>0.039782</v>
       </c>
       <c r="D139" t="n">
-        <v>0.30843</v>
+        <v>0.265889</v>
       </c>
       <c r="E139" t="n">
-        <v>0.044784</v>
+        <v>0.039782</v>
       </c>
       <c r="F139" t="n">
-        <v>0.30843</v>
+        <v>0.265889</v>
       </c>
     </row>
     <row r="140">
@@ -13141,10 +13141,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>-0.064911</v>
+        <v>-0.055958</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.002501</v>
+        <v>-0.002222</v>
       </c>
       <c r="E140" t="n">
         <v>0</v>
@@ -13163,10 +13163,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>-0.091937</v>
+        <v>-0.07925599999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.006377</v>
+        <v>-0.005665</v>
       </c>
       <c r="E141" t="n">
         <v>0</v>
@@ -13185,16 +13185,16 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0.051897</v>
+        <v>0.0461</v>
       </c>
       <c r="D142" t="n">
-        <v>0.068936</v>
+        <v>0.059428</v>
       </c>
       <c r="E142" t="n">
-        <v>0.051897</v>
+        <v>0.0461</v>
       </c>
       <c r="F142" t="n">
-        <v>0.068936</v>
+        <v>0.059428</v>
       </c>
     </row>
     <row r="143">
@@ -13207,16 +13207,16 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.032786</v>
+        <v>0.029124</v>
       </c>
       <c r="D143" t="n">
-        <v>0.122708</v>
+        <v>0.105784</v>
       </c>
       <c r="E143" t="n">
-        <v>0.032786</v>
+        <v>0.029124</v>
       </c>
       <c r="F143" t="n">
-        <v>0.122708</v>
+        <v>0.105784</v>
       </c>
     </row>
     <row r="144">
@@ -13229,16 +13229,16 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0.134334</v>
+        <v>0.119328</v>
       </c>
       <c r="D144" t="n">
-        <v>0.289238</v>
+        <v>0.249345</v>
       </c>
       <c r="E144" t="n">
-        <v>0.134334</v>
+        <v>0.119328</v>
       </c>
       <c r="F144" t="n">
-        <v>0.289238</v>
+        <v>0.249345</v>
       </c>
     </row>
     <row r="145">
@@ -13251,16 +13251,16 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0.342452</v>
+        <v>0.295219</v>
       </c>
       <c r="D145" t="n">
-        <v>0.342452</v>
+        <v>0.295219</v>
       </c>
       <c r="E145" t="n">
-        <v>0.342452</v>
+        <v>0.295219</v>
       </c>
       <c r="F145" t="n">
-        <v>0.342452</v>
+        <v>0.295219</v>
       </c>
     </row>
     <row r="146">
@@ -13273,10 +13273,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>-0.102946</v>
+        <v>-0.08874700000000001</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.009901999999999999</v>
+        <v>-0.008796</v>
       </c>
       <c r="E146" t="n">
         <v>0</v>
@@ -13295,16 +13295,16 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.057286</v>
+        <v>0.050887</v>
       </c>
       <c r="D147" t="n">
-        <v>0.356921</v>
+        <v>0.307692</v>
       </c>
       <c r="E147" t="n">
-        <v>0.057286</v>
+        <v>0.050887</v>
       </c>
       <c r="F147" t="n">
-        <v>0.356921</v>
+        <v>0.307692</v>
       </c>
     </row>
     <row r="148">
@@ -13317,16 +13317,16 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0.343942</v>
+        <v>0.296504</v>
       </c>
       <c r="D148" t="n">
-        <v>0.343942</v>
+        <v>0.296504</v>
       </c>
       <c r="E148" t="n">
-        <v>0.343942</v>
+        <v>0.296504</v>
       </c>
       <c r="F148" t="n">
-        <v>0.343942</v>
+        <v>0.296504</v>
       </c>
     </row>
     <row r="149">
@@ -13339,16 +13339,16 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>-0.013207</v>
+        <v>-0.011385</v>
       </c>
       <c r="D149" t="n">
-        <v>0.514732</v>
+        <v>0.457232</v>
       </c>
       <c r="E149" t="n">
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>0.514732</v>
+        <v>0.457232</v>
       </c>
     </row>
     <row r="150">
@@ -13361,13 +13361,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0.141599</v>
+        <v>0.122069</v>
       </c>
       <c r="D150" t="n">
-        <v>1.384891</v>
+        <v>1.230187</v>
       </c>
       <c r="E150" t="n">
-        <v>0.141599</v>
+        <v>0.122069</v>
       </c>
       <c r="F150" t="n">
         <v>1</v>
@@ -13383,16 +13383,16 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0.192134</v>
+        <v>0.170671</v>
       </c>
       <c r="D151" t="n">
-        <v>0.311233</v>
+        <v>0.268306</v>
       </c>
       <c r="E151" t="n">
-        <v>0.192134</v>
+        <v>0.170671</v>
       </c>
       <c r="F151" t="n">
-        <v>0.311233</v>
+        <v>0.268306</v>
       </c>
     </row>
     <row r="152">
@@ -13405,10 +13405,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>-0.029038</v>
+        <v>-0.025033</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.029038</v>
+        <v>-0.025033</v>
       </c>
       <c r="E152" t="n">
         <v>0</v>
@@ -13427,16 +13427,16 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>-0.01936</v>
+        <v>-0.017197</v>
       </c>
       <c r="D153" t="n">
-        <v>0.7313190000000001</v>
+        <v>0.630451</v>
       </c>
       <c r="E153" t="n">
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>0.7313190000000001</v>
+        <v>0.630451</v>
       </c>
     </row>
     <row r="154">
@@ -13449,16 +13449,16 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0.23633</v>
+        <v>0.203734</v>
       </c>
       <c r="D154" t="n">
-        <v>0.23633</v>
+        <v>0.203734</v>
       </c>
       <c r="E154" t="n">
-        <v>0.23633</v>
+        <v>0.203734</v>
       </c>
       <c r="F154" t="n">
-        <v>0.23633</v>
+        <v>0.203734</v>
       </c>
     </row>
     <row r="155">
@@ -13471,10 +13471,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>-0.087689</v>
+        <v>-0.075595</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.087689</v>
+        <v>-0.075595</v>
       </c>
       <c r="E155" t="n">
         <v>0</v>
@@ -13493,10 +13493,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>-0.118484</v>
+        <v>-0.102142</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.009391999999999999</v>
+        <v>-0.008343</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
@@ -13515,16 +13515,16 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0.002996</v>
+        <v>0.002661</v>
       </c>
       <c r="D157" t="n">
-        <v>0.071408</v>
+        <v>0.061559</v>
       </c>
       <c r="E157" t="n">
-        <v>0.002996</v>
+        <v>0.002661</v>
       </c>
       <c r="F157" t="n">
-        <v>0.071408</v>
+        <v>0.061559</v>
       </c>
     </row>
     <row r="158">
@@ -13537,10 +13537,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>-0.029869</v>
+        <v>-0.02575</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.008368</v>
+        <v>-0.007433</v>
       </c>
       <c r="E158" t="n">
         <v>0</v>
@@ -13559,10 +13559,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>-0.08241</v>
+        <v>-0.071043</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.010846</v>
+        <v>-0.009634999999999999</v>
       </c>
       <c r="E159" t="n">
         <v>0</v>
@@ -13581,16 +13581,16 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0.140945</v>
+        <v>0.125201</v>
       </c>
       <c r="D160" t="n">
-        <v>0.322836</v>
+        <v>0.278308</v>
       </c>
       <c r="E160" t="n">
-        <v>0.140945</v>
+        <v>0.125201</v>
       </c>
       <c r="F160" t="n">
-        <v>0.322836</v>
+        <v>0.278308</v>
       </c>
     </row>
     <row r="161">
@@ -13603,16 +13603,16 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0.025468</v>
+        <v>0.022623</v>
       </c>
       <c r="D161" t="n">
-        <v>0.033224</v>
+        <v>0.028641</v>
       </c>
       <c r="E161" t="n">
-        <v>0.025468</v>
+        <v>0.022623</v>
       </c>
       <c r="F161" t="n">
-        <v>0.033224</v>
+        <v>0.028641</v>
       </c>
     </row>
     <row r="162">
@@ -13625,16 +13625,16 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0.1604</v>
+        <v>0.142482</v>
       </c>
       <c r="D162" t="n">
-        <v>0.198431</v>
+        <v>0.171063</v>
       </c>
       <c r="E162" t="n">
-        <v>0.1604</v>
+        <v>0.142482</v>
       </c>
       <c r="F162" t="n">
-        <v>0.198431</v>
+        <v>0.171063</v>
       </c>
     </row>
     <row r="163">
@@ -13647,16 +13647,16 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.02971</v>
+        <v>0.026391</v>
       </c>
       <c r="D163" t="n">
-        <v>0.06927899999999999</v>
+        <v>0.059723</v>
       </c>
       <c r="E163" t="n">
-        <v>0.02971</v>
+        <v>0.026391</v>
       </c>
       <c r="F163" t="n">
-        <v>0.06927899999999999</v>
+        <v>0.059723</v>
       </c>
     </row>
     <row r="164">
@@ -13669,16 +13669,16 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0.077158</v>
+        <v>0.06651600000000001</v>
       </c>
       <c r="D164" t="n">
-        <v>0.090157</v>
+        <v>0.080086</v>
       </c>
       <c r="E164" t="n">
-        <v>0.077158</v>
+        <v>0.06651600000000001</v>
       </c>
       <c r="F164" t="n">
-        <v>0.090157</v>
+        <v>0.080086</v>
       </c>
     </row>
     <row r="165">
@@ -13691,16 +13691,16 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0.059601</v>
+        <v>0.052943</v>
       </c>
       <c r="D165" t="n">
-        <v>0.064512</v>
+        <v>0.055614</v>
       </c>
       <c r="E165" t="n">
-        <v>0.059601</v>
+        <v>0.052943</v>
       </c>
       <c r="F165" t="n">
-        <v>0.064512</v>
+        <v>0.055614</v>
       </c>
     </row>
     <row r="166">
@@ -13713,16 +13713,16 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0.012916</v>
+        <v>0.011135</v>
       </c>
       <c r="D166" t="n">
-        <v>0.06058</v>
+        <v>0.053812</v>
       </c>
       <c r="E166" t="n">
-        <v>0.012916</v>
+        <v>0.011135</v>
       </c>
       <c r="F166" t="n">
-        <v>0.06058</v>
+        <v>0.053812</v>
       </c>
     </row>
     <row r="167">
@@ -13735,16 +13735,16 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0.140987</v>
+        <v>0.121542</v>
       </c>
       <c r="D167" t="n">
-        <v>0.315986</v>
+        <v>0.280688</v>
       </c>
       <c r="E167" t="n">
-        <v>0.140987</v>
+        <v>0.121542</v>
       </c>
       <c r="F167" t="n">
-        <v>0.315986</v>
+        <v>0.280688</v>
       </c>
     </row>
     <row r="168">
@@ -13757,16 +13757,16 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0.234009</v>
+        <v>0.201733</v>
       </c>
       <c r="D168" t="n">
-        <v>0.243531</v>
+        <v>0.216327</v>
       </c>
       <c r="E168" t="n">
-        <v>0.234009</v>
+        <v>0.201733</v>
       </c>
       <c r="F168" t="n">
-        <v>0.243531</v>
+        <v>0.216327</v>
       </c>
     </row>
     <row r="169">
@@ -13779,16 +13779,16 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0.138872</v>
+        <v>0.123359</v>
       </c>
       <c r="D169" t="n">
-        <v>0.382162</v>
+        <v>0.329452</v>
       </c>
       <c r="E169" t="n">
-        <v>0.138872</v>
+        <v>0.123359</v>
       </c>
       <c r="F169" t="n">
-        <v>0.382162</v>
+        <v>0.329452</v>
       </c>
     </row>
     <row r="170">
@@ -13801,16 +13801,16 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0.141495</v>
+        <v>0.125689</v>
       </c>
       <c r="D170" t="n">
-        <v>0.36246</v>
+        <v>0.312467</v>
       </c>
       <c r="E170" t="n">
-        <v>0.141495</v>
+        <v>0.125689</v>
       </c>
       <c r="F170" t="n">
-        <v>0.36246</v>
+        <v>0.312467</v>
       </c>
     </row>
     <row r="171">
@@ -13823,16 +13823,16 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0.144851</v>
+        <v>0.124872</v>
       </c>
       <c r="D171" t="n">
-        <v>0.286344</v>
+        <v>0.254357</v>
       </c>
       <c r="E171" t="n">
-        <v>0.144851</v>
+        <v>0.124872</v>
       </c>
       <c r="F171" t="n">
-        <v>0.286344</v>
+        <v>0.254357</v>
       </c>
     </row>
     <row r="172">
@@ -13845,16 +13845,16 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>-0.003512</v>
+        <v>-0.00312</v>
       </c>
       <c r="D172" t="n">
-        <v>0.09372999999999999</v>
+        <v>0.080803</v>
       </c>
       <c r="E172" t="n">
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>0.09372999999999999</v>
+        <v>0.080803</v>
       </c>
     </row>
     <row r="173">
@@ -13867,10 +13867,10 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>-0.03337</v>
+        <v>-0.028767</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.012365</v>
+        <v>-0.010984</v>
       </c>
       <c r="E173" t="n">
         <v>0</v>
@@ -13889,16 +13889,16 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0.158551</v>
+        <v>0.136683</v>
       </c>
       <c r="D174" t="n">
-        <v>0.63864</v>
+        <v>0.567299</v>
       </c>
       <c r="E174" t="n">
-        <v>0.158551</v>
+        <v>0.136683</v>
       </c>
       <c r="F174" t="n">
-        <v>0.63864</v>
+        <v>0.567299</v>
       </c>
     </row>
     <row r="175">
@@ -13911,16 +13911,16 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0.053469</v>
+        <v>0.047496</v>
       </c>
       <c r="D175" t="n">
-        <v>0.078351</v>
+        <v>0.06754400000000001</v>
       </c>
       <c r="E175" t="n">
-        <v>0.053469</v>
+        <v>0.047496</v>
       </c>
       <c r="F175" t="n">
-        <v>0.078351</v>
+        <v>0.06754400000000001</v>
       </c>
     </row>
     <row r="176">
@@ -13933,16 +13933,16 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0.037464</v>
+        <v>0.033279</v>
       </c>
       <c r="D176" t="n">
-        <v>0.06395099999999999</v>
+        <v>0.055131</v>
       </c>
       <c r="E176" t="n">
-        <v>0.037464</v>
+        <v>0.033279</v>
       </c>
       <c r="F176" t="n">
-        <v>0.06395099999999999</v>
+        <v>0.055131</v>
       </c>
     </row>
     <row r="177">
@@ -13955,10 +13955,10 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>-0.00303</v>
+        <v>-0.002692</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.001412</v>
+        <v>-0.001218</v>
       </c>
       <c r="E177" t="n">
         <v>0</v>
@@ -13977,16 +13977,16 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>-0.010918</v>
+        <v>-0.009698</v>
       </c>
       <c r="D178" t="n">
-        <v>0.035048</v>
+        <v>0.030214</v>
       </c>
       <c r="E178" t="n">
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>0.035048</v>
+        <v>0.030214</v>
       </c>
     </row>
     <row r="179">
@@ -13999,16 +13999,16 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>-0.008269</v>
+        <v>-0.007345</v>
       </c>
       <c r="D179" t="n">
-        <v>0.022804</v>
+        <v>0.019659</v>
       </c>
       <c r="E179" t="n">
         <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>0.022804</v>
+        <v>0.019659</v>
       </c>
     </row>
     <row r="180">
@@ -14021,16 +14021,16 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0.092061</v>
+        <v>0.081777</v>
       </c>
       <c r="D180" t="n">
-        <v>0.134679</v>
+        <v>0.116104</v>
       </c>
       <c r="E180" t="n">
-        <v>0.092061</v>
+        <v>0.081777</v>
       </c>
       <c r="F180" t="n">
-        <v>0.134679</v>
+        <v>0.116104</v>
       </c>
     </row>
     <row r="181">
@@ -14043,16 +14043,16 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0.039559</v>
+        <v>0.03514</v>
       </c>
       <c r="D181" t="n">
-        <v>0.148808</v>
+        <v>0.128283</v>
       </c>
       <c r="E181" t="n">
-        <v>0.039559</v>
+        <v>0.03514</v>
       </c>
       <c r="F181" t="n">
-        <v>0.148808</v>
+        <v>0.128283</v>
       </c>
     </row>
     <row r="182">
@@ -14065,16 +14065,16 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0.038795</v>
+        <v>0.034462</v>
       </c>
       <c r="D182" t="n">
-        <v>0.114815</v>
+        <v>0.098979</v>
       </c>
       <c r="E182" t="n">
-        <v>0.038795</v>
+        <v>0.034462</v>
       </c>
       <c r="F182" t="n">
-        <v>0.114815</v>
+        <v>0.098979</v>
       </c>
     </row>
     <row r="183">
@@ -14087,16 +14087,16 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0.041037</v>
+        <v>0.036452</v>
       </c>
       <c r="D183" t="n">
-        <v>0.147476</v>
+        <v>0.127135</v>
       </c>
       <c r="E183" t="n">
-        <v>0.041037</v>
+        <v>0.036452</v>
       </c>
       <c r="F183" t="n">
-        <v>0.147476</v>
+        <v>0.127135</v>
       </c>
     </row>
     <row r="184">
@@ -14109,16 +14109,16 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>-0.010326</v>
+        <v>-0.009172</v>
       </c>
       <c r="D184" t="n">
-        <v>0.02421</v>
+        <v>0.020871</v>
       </c>
       <c r="E184" t="n">
         <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>0.02421</v>
+        <v>0.020871</v>
       </c>
     </row>
     <row r="185">
@@ -14131,16 +14131,16 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0.035821</v>
+        <v>0.031819</v>
       </c>
       <c r="D185" t="n">
-        <v>0.075199</v>
+        <v>0.064827</v>
       </c>
       <c r="E185" t="n">
-        <v>0.035821</v>
+        <v>0.031819</v>
       </c>
       <c r="F185" t="n">
-        <v>0.075199</v>
+        <v>0.064827</v>
       </c>
     </row>
     <row r="186">
@@ -14153,16 +14153,16 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>-0.01436</v>
+        <v>-0.012756</v>
       </c>
       <c r="D186" t="n">
-        <v>0.177975</v>
+        <v>0.153427</v>
       </c>
       <c r="E186" t="n">
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>0.177975</v>
+        <v>0.153427</v>
       </c>
     </row>
     <row r="187">
@@ -14175,16 +14175,16 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0.009214</v>
+        <v>0.008185</v>
       </c>
       <c r="D187" t="n">
-        <v>0.054808</v>
+        <v>0.047248</v>
       </c>
       <c r="E187" t="n">
-        <v>0.009214</v>
+        <v>0.008185</v>
       </c>
       <c r="F187" t="n">
-        <v>0.054808</v>
+        <v>0.047248</v>
       </c>
     </row>
     <row r="188">
@@ -14197,16 +14197,16 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0.172641</v>
+        <v>0.153356</v>
       </c>
       <c r="D188" t="n">
-        <v>0.397595</v>
+        <v>0.342756</v>
       </c>
       <c r="E188" t="n">
-        <v>0.172641</v>
+        <v>0.153356</v>
       </c>
       <c r="F188" t="n">
-        <v>0.397595</v>
+        <v>0.342756</v>
       </c>
     </row>
     <row r="189">
@@ -14219,16 +14219,16 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0.047947</v>
+        <v>0.042591</v>
       </c>
       <c r="D189" t="n">
-        <v>0.379188</v>
+        <v>0.326888</v>
       </c>
       <c r="E189" t="n">
-        <v>0.047947</v>
+        <v>0.042591</v>
       </c>
       <c r="F189" t="n">
-        <v>0.379188</v>
+        <v>0.326888</v>
       </c>
     </row>
     <row r="190">
@@ -14241,16 +14241,16 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0.048734</v>
+        <v>0.04329</v>
       </c>
       <c r="D190" t="n">
-        <v>0.385798</v>
+        <v>0.332587</v>
       </c>
       <c r="E190" t="n">
-        <v>0.048734</v>
+        <v>0.04329</v>
       </c>
       <c r="F190" t="n">
-        <v>0.385798</v>
+        <v>0.332587</v>
       </c>
     </row>
     <row r="191">
@@ -14263,16 +14263,16 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>0.041706</v>
+        <v>0.037047</v>
       </c>
       <c r="D191" t="n">
-        <v>0.06314500000000001</v>
+        <v>0.054436</v>
       </c>
       <c r="E191" t="n">
-        <v>0.041706</v>
+        <v>0.037047</v>
       </c>
       <c r="F191" t="n">
-        <v>0.06314500000000001</v>
+        <v>0.054436</v>
       </c>
     </row>
     <row r="192">
@@ -14285,13 +14285,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0.123134</v>
+        <v>0.106151</v>
       </c>
       <c r="D192" t="n">
-        <v>1.278794</v>
+        <v>1.135942</v>
       </c>
       <c r="E192" t="n">
-        <v>0.123134</v>
+        <v>0.106151</v>
       </c>
       <c r="F192" t="n">
         <v>1</v>
@@ -14307,16 +14307,16 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0.151507</v>
+        <v>0.130611</v>
       </c>
       <c r="D193" t="n">
-        <v>0.543712</v>
+        <v>0.482975</v>
       </c>
       <c r="E193" t="n">
-        <v>0.151507</v>
+        <v>0.130611</v>
       </c>
       <c r="F193" t="n">
-        <v>0.543712</v>
+        <v>0.482975</v>
       </c>
     </row>
     <row r="194">
@@ -14329,16 +14329,16 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>0.075364</v>
+        <v>0.066945</v>
       </c>
       <c r="D194" t="n">
-        <v>0.172341</v>
+        <v>0.14857</v>
       </c>
       <c r="E194" t="n">
-        <v>0.075364</v>
+        <v>0.066945</v>
       </c>
       <c r="F194" t="n">
-        <v>0.172341</v>
+        <v>0.14857</v>
       </c>
     </row>
     <row r="195">
@@ -14351,16 +14351,16 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0.144489</v>
+        <v>0.12456</v>
       </c>
       <c r="D195" t="n">
-        <v>0.636796</v>
+        <v>0.565661</v>
       </c>
       <c r="E195" t="n">
-        <v>0.144489</v>
+        <v>0.12456</v>
       </c>
       <c r="F195" t="n">
-        <v>0.636796</v>
+        <v>0.565661</v>
       </c>
     </row>
     <row r="196">
@@ -14373,10 +14373,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>-0.007591</v>
+        <v>-0.006544</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.006609</v>
+        <v>-0.005871</v>
       </c>
       <c r="E196" t="n">
         <v>0</v>
@@ -14395,16 +14395,16 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0.061994</v>
+        <v>0.055069</v>
       </c>
       <c r="D197" t="n">
-        <v>0.133463</v>
+        <v>0.115055</v>
       </c>
       <c r="E197" t="n">
-        <v>0.061994</v>
+        <v>0.055069</v>
       </c>
       <c r="F197" t="n">
-        <v>0.133463</v>
+        <v>0.115055</v>
       </c>
     </row>
     <row r="198">
@@ -14417,16 +14417,16 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>0.010452</v>
+        <v>0.009285</v>
       </c>
       <c r="D198" t="n">
-        <v>0.018917</v>
+        <v>0.016308</v>
       </c>
       <c r="E198" t="n">
-        <v>0.010452</v>
+        <v>0.009285</v>
       </c>
       <c r="F198" t="n">
-        <v>0.018917</v>
+        <v>0.016308</v>
       </c>
     </row>
     <row r="199">
@@ -14439,16 +14439,16 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0.010452</v>
+        <v>0.009285</v>
       </c>
       <c r="D199" t="n">
-        <v>0.018917</v>
+        <v>0.016308</v>
       </c>
       <c r="E199" t="n">
-        <v>0.010452</v>
+        <v>0.009285</v>
       </c>
       <c r="F199" t="n">
-        <v>0.018917</v>
+        <v>0.016308</v>
       </c>
     </row>
     <row r="200">
@@ -14461,10 +14461,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>-0.051152</v>
+        <v>-0.044097</v>
       </c>
       <c r="D200" t="n">
-        <v>-0.009372</v>
+        <v>-0.008325000000000001</v>
       </c>
       <c r="E200" t="n">
         <v>0</v>
@@ -14483,10 +14483,10 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>-0.05114</v>
+        <v>-0.044087</v>
       </c>
       <c r="D201" t="n">
-        <v>-0.009384</v>
+        <v>-0.008336</v>
       </c>
       <c r="E201" t="n">
         <v>0</v>
@@ -14505,10 +14505,10 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>-0.051152</v>
+        <v>-0.044097</v>
       </c>
       <c r="D202" t="n">
-        <v>-0.009372</v>
+        <v>-0.008325000000000001</v>
       </c>
       <c r="E202" t="n">
         <v>0</v>
@@ -14527,16 +14527,16 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>0.074268</v>
+        <v>0.064025</v>
       </c>
       <c r="D203" t="n">
-        <v>0.08505500000000001</v>
+        <v>0.075554</v>
       </c>
       <c r="E203" t="n">
-        <v>0.074268</v>
+        <v>0.064025</v>
       </c>
       <c r="F203" t="n">
-        <v>0.08505500000000001</v>
+        <v>0.075554</v>
       </c>
     </row>
     <row r="204">
@@ -14549,16 +14549,16 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>0.090959</v>
+        <v>0.078413</v>
       </c>
       <c r="D204" t="n">
-        <v>0.131835</v>
+        <v>0.117108</v>
       </c>
       <c r="E204" t="n">
-        <v>0.090959</v>
+        <v>0.078413</v>
       </c>
       <c r="F204" t="n">
-        <v>0.131835</v>
+        <v>0.117108</v>
       </c>
     </row>
   </sheetData>
